--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/Exportar/1.1.EEE_calentadores_gas_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/Exportar/1.1.EEE_calentadores_gas_exp.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\EXCEL EXPORTAR LISTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3C9BA5-8915-43D8-BEA4-8544736C0708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="6885" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
     <sheet name="Proveedores" sheetId="2" r:id="rId2"/>
-    <sheet name="EEE Calentador (gas)" sheetId="8" r:id="rId3"/>
-    <sheet name="Variables" sheetId="4" r:id="rId4"/>
-    <sheet name="Factores" sheetId="5" r:id="rId5"/>
+    <sheet name="Variables" sheetId="4" r:id="rId3"/>
+    <sheet name="Factores" sheetId="5" r:id="rId4"/>
+    <sheet name="EEE Calentador (gas)" sheetId="8" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -35,22 +36,28 @@
     <definedName name="Lista_meses">Variables!$S$87:$S$98</definedName>
     <definedName name="Tabla_mes">Variables!$S$87:$T$98</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H181" authorId="0" shapeId="0">
+    <comment ref="H181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E221" authorId="0" shapeId="0">
+    <comment ref="E221" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -107,12 +114,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2446,16 +2453,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0.00000000_ ;_ * \-#,##0.00000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -3731,12 +3740,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3862,21 +3871,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3884,8 +3893,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3894,10 +3903,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3997,12 +4006,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4019,7 +4028,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4045,9 +4054,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4070,7 +4079,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4160,7 +4169,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4172,61 +4181,61 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4234,20 +4243,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="19" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4280,7 +4280,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4293,10 +4293,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4315,11 +4315,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="24" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="24" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4568,7 +4568,7 @@
     <xf numFmtId="3" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4577,6 +4577,19 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -4643,99 +4656,99 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 3" xfId="4"/>
+    <cellStyle name="Normal 10 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4760,7 +4773,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4799,7 +4812,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4916,6 +4929,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45A5-4EFD-8E5F-0271A2C08948}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4971,7 +4989,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299424432"/>
@@ -5030,7 +5048,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="299421632"/>
@@ -5071,7 +5089,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5083,7 +5101,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5122,7 +5140,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5239,6 +5257,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0669-4B30-A71A-33D0AEB5EF8D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5294,7 +5317,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="165950832"/>
@@ -5353,7 +5376,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="165951392"/>
@@ -5394,7 +5417,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5406,7 +5429,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5445,7 +5468,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5562,6 +5585,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B88-4CDE-AD02-3620C15F1401}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5617,7 +5645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="300270704"/>
@@ -5676,7 +5704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="259943664"/>
@@ -5717,7 +5745,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5729,7 +5757,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5768,7 +5796,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5885,6 +5913,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B5F-4E2F-B688-91FE12EDFA54}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5940,7 +5973,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="163817088"/>
@@ -5999,7 +6032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="163815968"/>
@@ -6040,7 +6073,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6052,7 +6085,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6091,7 +6124,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6208,6 +6241,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C146-41F9-80B1-DBBCFAA7B90D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6263,7 +6301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296968352"/>
@@ -6322,7 +6360,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="272752896"/>
@@ -6363,7 +6401,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6375,7 +6413,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6414,7 +6452,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6531,6 +6569,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-379B-4427-A98A-C07A66F58361}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6586,7 +6629,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="292412496"/>
@@ -6645,7 +6688,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="292411936"/>
@@ -6686,7 +6729,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6698,7 +6741,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6737,7 +6780,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6854,6 +6897,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0C5-4658-8D3E-72177FA3C665}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6909,7 +6957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="271607440"/>
@@ -6968,7 +7016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="271606880"/>
@@ -7009,7 +7057,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10833,7 +10881,13 @@
     <xdr:ext cx="3945701" cy="381985"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10932,7 +10986,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11022,7 +11082,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3"/>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11087,7 +11153,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11117,7 +11189,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11149,7 +11227,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11181,7 +11265,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11213,7 +11303,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11245,7 +11341,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11277,7 +11379,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12756,7 +12864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -12783,30 +12891,30 @@
     </row>
     <row r="3" spans="1:5" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="346" t="s">
+      <c r="B4" s="348" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="347"/>
-      <c r="D4" s="347"/>
-      <c r="E4" s="348"/>
+      <c r="C4" s="349"/>
+      <c r="D4" s="349"/>
+      <c r="E4" s="350"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="349"/>
-      <c r="C5" s="350"/>
-      <c r="D5" s="350"/>
-      <c r="E5" s="351"/>
+      <c r="B5" s="351"/>
+      <c r="C5" s="352"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="353"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="349"/>
-      <c r="C6" s="350"/>
-      <c r="D6" s="350"/>
-      <c r="E6" s="351"/>
+      <c r="B6" s="351"/>
+      <c r="C6" s="352"/>
+      <c r="D6" s="352"/>
+      <c r="E6" s="353"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="352"/>
-      <c r="C7" s="353"/>
-      <c r="D7" s="353"/>
-      <c r="E7" s="354"/>
+      <c r="B7" s="354"/>
+      <c r="C7" s="355"/>
+      <c r="D7" s="355"/>
+      <c r="E7" s="356"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
@@ -13057,7 +13165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13093,25 +13201,25 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="358" t="s">
+      <c r="B4" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="358"/>
-      <c r="D4" s="358"/>
-      <c r="E4" s="358"/>
-      <c r="F4" s="358"/>
-      <c r="G4" s="358"/>
-      <c r="K4" s="359" t="s">
+      <c r="C4" s="360"/>
+      <c r="D4" s="360"/>
+      <c r="E4" s="360"/>
+      <c r="F4" s="360"/>
+      <c r="G4" s="360"/>
+      <c r="K4" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="359"/>
-      <c r="M4" s="359"/>
-      <c r="N4" s="359"/>
-      <c r="O4" s="359"/>
-      <c r="P4" s="359"/>
-      <c r="Q4" s="359"/>
-      <c r="R4" s="359"/>
-      <c r="S4" s="359"/>
+      <c r="L4" s="361"/>
+      <c r="M4" s="361"/>
+      <c r="N4" s="361"/>
+      <c r="O4" s="361"/>
+      <c r="P4" s="361"/>
+      <c r="Q4" s="361"/>
+      <c r="R4" s="361"/>
+      <c r="S4" s="361"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -13120,21 +13228,21 @@
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="360" t="s">
+      <c r="K5" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="362" t="s">
+      <c r="L5" s="364" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="363"/>
-      <c r="N5" s="363"/>
-      <c r="O5" s="364"/>
-      <c r="P5" s="365" t="s">
+      <c r="M5" s="365"/>
+      <c r="N5" s="365"/>
+      <c r="O5" s="366"/>
+      <c r="P5" s="367" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="366"/>
-      <c r="R5" s="366"/>
-      <c r="S5" s="367"/>
+      <c r="Q5" s="368"/>
+      <c r="R5" s="368"/>
+      <c r="S5" s="369"/>
     </row>
     <row r="6" spans="2:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
@@ -13143,7 +13251,7 @@
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="361"/>
+      <c r="K6" s="363"/>
       <c r="L6" s="129" t="s">
         <v>10</v>
       </c>
@@ -13302,14 +13410,14 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="355" t="s">
+      <c r="B14" s="357" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="356"/>
-      <c r="D14" s="356"/>
-      <c r="E14" s="356"/>
-      <c r="F14" s="356"/>
-      <c r="G14" s="357"/>
+      <c r="C14" s="358"/>
+      <c r="D14" s="358"/>
+      <c r="E14" s="358"/>
+      <c r="F14" s="358"/>
+      <c r="G14" s="359"/>
     </row>
     <row r="15" spans="2:19" ht="36" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
@@ -13386,220 +13494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="320" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="320"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="322" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="320"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="320"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="323" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="324"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="327"/>
-      <c r="H4" s="327"/>
-      <c r="I4" s="368" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="B5" s="328" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="328" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="329" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="328" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="330" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331" t="s">
-        <v>265</v>
-      </c>
-      <c r="I5" s="368"/>
-    </row>
-    <row r="6" spans="2:9" ht="72" x14ac:dyDescent="0.25">
-      <c r="B6" s="332" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="333"/>
-      <c r="H6" s="72" t="s">
-        <v>282</v>
-      </c>
-      <c r="I6" s="334" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="335">
-        <v>2013</v>
-      </c>
-      <c r="C7" s="335">
-        <v>30</v>
-      </c>
-      <c r="D7" s="335" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="335" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="336">
-        <v>97000</v>
-      </c>
-      <c r="G7" s="80">
-        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="H7" s="337" t="s">
-        <v>270</v>
-      </c>
-      <c r="I7" s="338">
-        <f>(((Variables!N90*Factores!$C$30*(Factores!G28+Factores!H28*Factores!C37+Factores!I28*Factores!C38))-(Variables!N87*Factores!$C$30*(Factores!G28+Factores!H28*Factores!C37+Factores!I28*Factores!C38)))*F7/1000)*G7/12</f>
-        <v>516.70545238055831</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="335">
-        <v>2014</v>
-      </c>
-      <c r="C8" s="335">
-        <v>150</v>
-      </c>
-      <c r="D8" s="335" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="335" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="336">
-        <v>2700</v>
-      </c>
-      <c r="G8" s="80">
-        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="H8" s="337" t="s">
-        <v>271</v>
-      </c>
-      <c r="I8" s="338">
-        <f>(((Variables!O98*Factores!$C$31*(Factores!G29+Factores!H29*Factores!C37+Factores!I29*Factores!C38))-(Variables!N95*Factores!$C$30*(Factores!G28+Factores!H28*Factores!C37+Factores!I28*Factores!C38)))*F8/1000)*G8/12</f>
-        <v>456.80277420591398</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="339"/>
-      <c r="D9" s="340"/>
-      <c r="E9" s="341"/>
-      <c r="F9" s="342"/>
-      <c r="G9" s="342"/>
-      <c r="H9" s="342"/>
-      <c r="I9" s="343">
-        <f>SUM(I7:I8)</f>
-        <v>973.50822658647235</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I4:I5"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8">
-      <formula1>Lista_meses</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Variables!$K$93:$K$94</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7:C8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Variables!$F$12:$F$18</xm:f>
-          </x14:formula1>
-          <xm:sqref>D7:E8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AY305"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R92" sqref="R92"/>
+    <sheetView topLeftCell="L82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13610,16 +13509,16 @@
     <col min="4" max="4" width="18.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="252" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="249" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="250" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="247" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="252" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="249" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="28.42578125" style="1" customWidth="1"/>
     <col min="19" max="19" width="17.140625" style="1" customWidth="1"/>
@@ -13715,7 +13614,7 @@
       <c r="F1" s="135">
         <v>10</v>
       </c>
-      <c r="G1" s="251">
+      <c r="G1" s="248">
         <v>11</v>
       </c>
       <c r="H1" s="135">
@@ -13727,7 +13626,7 @@
       <c r="J1" s="135">
         <v>20</v>
       </c>
-      <c r="K1" s="283">
+      <c r="K1" s="280">
         <v>23</v>
       </c>
       <c r="L1" s="135">
@@ -13742,7 +13641,7 @@
       <c r="O1" s="135">
         <v>60</v>
       </c>
-      <c r="P1" s="251">
+      <c r="P1" s="248">
         <v>80</v>
       </c>
       <c r="Q1" s="135">
@@ -13764,19 +13663,19 @@
       <c r="D3" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="382" t="s">
+      <c r="E3" s="383" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="382"/>
-      <c r="G3" s="382"/>
-      <c r="H3" s="382"/>
-      <c r="I3" s="382"/>
-      <c r="J3" s="382"/>
-      <c r="K3" s="382"/>
-      <c r="L3" s="382"/>
-      <c r="M3" s="382"/>
-      <c r="N3" s="382"/>
-      <c r="P3" s="306" t="s">
+      <c r="F3" s="383"/>
+      <c r="G3" s="383"/>
+      <c r="H3" s="383"/>
+      <c r="I3" s="383"/>
+      <c r="J3" s="383"/>
+      <c r="K3" s="383"/>
+      <c r="L3" s="383"/>
+      <c r="M3" s="383"/>
+      <c r="N3" s="383"/>
+      <c r="P3" s="303" t="s">
         <v>145</v>
       </c>
       <c r="Q3" s="133" t="s">
@@ -13796,7 +13695,7 @@
       <c r="F4" s="124">
         <v>25</v>
       </c>
-      <c r="G4" s="253">
+      <c r="G4" s="250">
         <v>40</v>
       </c>
       <c r="H4" s="124">
@@ -13808,13 +13707,13 @@
       <c r="J4" s="124">
         <v>150</v>
       </c>
-      <c r="K4" s="284">
+      <c r="K4" s="281">
         <v>200</v>
       </c>
       <c r="L4" s="132"/>
       <c r="M4" s="132"/>
       <c r="N4" s="132"/>
-      <c r="P4" s="253" t="s">
+      <c r="P4" s="250" t="s">
         <v>147</v>
       </c>
       <c r="Q4" s="43">
@@ -13835,7 +13734,7 @@
       <c r="F5" s="124">
         <v>18</v>
       </c>
-      <c r="G5" s="253">
+      <c r="G5" s="250">
         <v>36</v>
       </c>
       <c r="H5" s="124">
@@ -13847,11 +13746,11 @@
       <c r="J5" s="124">
         <v>100</v>
       </c>
-      <c r="K5" s="285"/>
+      <c r="K5" s="282"/>
       <c r="L5" s="132"/>
       <c r="M5" s="132"/>
       <c r="N5" s="132"/>
-      <c r="P5" s="253" t="s">
+      <c r="P5" s="250" t="s">
         <v>148</v>
       </c>
       <c r="Q5" s="43">
@@ -13872,7 +13771,7 @@
       <c r="F6" s="124">
         <v>11</v>
       </c>
-      <c r="G6" s="253">
+      <c r="G6" s="250">
         <v>15</v>
       </c>
       <c r="H6" s="124">
@@ -13884,11 +13783,11 @@
       <c r="J6" s="124">
         <v>30</v>
       </c>
-      <c r="K6" s="285"/>
+      <c r="K6" s="282"/>
       <c r="L6" s="132"/>
       <c r="M6" s="132"/>
       <c r="N6" s="132"/>
-      <c r="P6" s="253" t="s">
+      <c r="P6" s="250" t="s">
         <v>149</v>
       </c>
       <c r="Q6" s="43">
@@ -13909,7 +13808,7 @@
       <c r="F7" s="124">
         <v>4</v>
       </c>
-      <c r="G7" s="253">
+      <c r="G7" s="250">
         <v>6</v>
       </c>
       <c r="H7" s="124">
@@ -13921,7 +13820,7 @@
       <c r="J7" s="124">
         <v>16</v>
       </c>
-      <c r="K7" s="284">
+      <c r="K7" s="281">
         <v>20</v>
       </c>
       <c r="L7" s="124">
@@ -13933,7 +13832,7 @@
       <c r="N7" s="124">
         <v>60</v>
       </c>
-      <c r="P7" s="253" t="s">
+      <c r="P7" s="250" t="s">
         <v>150</v>
       </c>
       <c r="Q7" s="43">
@@ -13950,11 +13849,11 @@
       </c>
       <c r="E8" s="124"/>
       <c r="F8" s="124"/>
-      <c r="G8" s="253"/>
+      <c r="G8" s="250"/>
       <c r="H8" s="124"/>
       <c r="I8" s="124"/>
       <c r="J8" s="124"/>
-      <c r="K8" s="284"/>
+      <c r="K8" s="281"/>
       <c r="L8" s="124"/>
       <c r="M8" s="124"/>
       <c r="N8" s="124"/>
@@ -13968,9 +13867,9 @@
       <c r="D10" s="180" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="254"/>
-      <c r="K10" s="286"/>
-      <c r="P10" s="254"/>
+      <c r="G10" s="251"/>
+      <c r="K10" s="283"/>
+      <c r="P10" s="251"/>
     </row>
     <row r="11" spans="2:44" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="161" t="s">
@@ -13985,14 +13884,14 @@
       <c r="F11" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="255" t="s">
+      <c r="G11" s="252" t="s">
         <v>75</v>
       </c>
       <c r="H11" s="46"/>
       <c r="J11" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="287" t="s">
+      <c r="K11" s="284" t="s">
         <v>74</v>
       </c>
       <c r="L11" s="148" t="s">
@@ -14002,7 +13901,7 @@
         <v>75</v>
       </c>
       <c r="N11" s="46"/>
-      <c r="P11" s="307" t="s">
+      <c r="P11" s="304" t="s">
         <v>51</v>
       </c>
       <c r="Q11" s="145" t="s">
@@ -14081,7 +13980,7 @@
       <c r="F12" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="256">
+      <c r="G12" s="253">
         <f>[1]Resumen!$D$4</f>
         <v>184.39431999999999</v>
       </c>
@@ -14089,7 +13988,7 @@
       <c r="J12" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="K12" s="288">
+      <c r="K12" s="285">
         <v>120</v>
       </c>
       <c r="L12" s="49" t="s">
@@ -14100,7 +13999,7 @@
         <v>176.64380800000004</v>
       </c>
       <c r="N12" s="50"/>
-      <c r="P12" s="308" t="s">
+      <c r="P12" s="305" t="s">
         <v>168</v>
       </c>
       <c r="Q12" s="85">
@@ -14185,7 +14084,7 @@
       <c r="F13" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="257">
+      <c r="G13" s="254">
         <f>[1]Resumen!$E$4</f>
         <v>217.92055999999999</v>
       </c>
@@ -14196,7 +14095,7 @@
       <c r="J13" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K13" s="284">
+      <c r="K13" s="281">
         <f t="shared" ref="K13:K18" si="2">+K12</f>
         <v>120</v>
       </c>
@@ -14211,10 +14110,10 @@
         <f t="shared" ref="N13:N18" si="3">M13/M12-1</f>
         <v>0.18181818181818166</v>
       </c>
-      <c r="P13" s="309" t="s">
+      <c r="P13" s="306" t="s">
         <v>168</v>
       </c>
-      <c r="Q13" s="220">
+      <c r="Q13" s="217">
         <f t="shared" ref="Q13:Q18" si="4">+Q12</f>
         <v>120</v>
       </c>
@@ -14232,7 +14131,7 @@
       <c r="V13" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="W13" s="220">
+      <c r="W13" s="217">
         <f t="shared" ref="W13:W18" si="6">+W12</f>
         <v>120</v>
       </c>
@@ -14250,7 +14149,7 @@
       <c r="AB13" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="AC13" s="220">
+      <c r="AC13" s="217">
         <f t="shared" ref="AC13:AC18" si="8">+AC12</f>
         <v>120</v>
       </c>
@@ -14268,7 +14167,7 @@
       <c r="AH13" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="AI13" s="220">
+      <c r="AI13" s="217">
         <f t="shared" ref="AI13:AI18" si="10">+AI12</f>
         <v>120</v>
       </c>
@@ -14286,7 +14185,7 @@
       <c r="AN13" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="AO13" s="220">
+      <c r="AO13" s="217">
         <f t="shared" ref="AO13:AO18" si="12">+AO12</f>
         <v>120</v>
       </c>
@@ -14309,14 +14208,14 @@
       <c r="D14" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="220">
+      <c r="E14" s="217">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="258">
+      <c r="G14" s="255">
         <f>[1]Resumen!$F$4</f>
         <v>284.97304000000003</v>
       </c>
@@ -14327,7 +14226,7 @@
       <c r="J14" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="284">
+      <c r="K14" s="281">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -14342,10 +14241,10 @@
         <f t="shared" si="3"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="P14" s="309" t="s">
+      <c r="P14" s="306" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" s="220">
+      <c r="Q14" s="217">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -14363,7 +14262,7 @@
       <c r="V14" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="W14" s="220">
+      <c r="W14" s="217">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
@@ -14381,7 +14280,7 @@
       <c r="AB14" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="AC14" s="220">
+      <c r="AC14" s="217">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
@@ -14399,7 +14298,7 @@
       <c r="AH14" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="AI14" s="220">
+      <c r="AI14" s="217">
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
@@ -14417,7 +14316,7 @@
       <c r="AN14" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="AO14" s="220">
+      <c r="AO14" s="217">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
@@ -14440,14 +14339,14 @@
       <c r="D15" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="220">
+      <c r="E15" s="217">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="F15" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="258">
+      <c r="G15" s="255">
         <f>[1]Resumen!$G$4</f>
         <v>343.64395999999999</v>
       </c>
@@ -14458,7 +14357,7 @@
       <c r="J15" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K15" s="284">
+      <c r="K15" s="281">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -14473,10 +14372,10 @@
         <f t="shared" si="3"/>
         <v>0.20588235294117663</v>
       </c>
-      <c r="P15" s="309" t="s">
+      <c r="P15" s="306" t="s">
         <v>168</v>
       </c>
-      <c r="Q15" s="220">
+      <c r="Q15" s="217">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -14494,7 +14393,7 @@
       <c r="V15" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="W15" s="220">
+      <c r="W15" s="217">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
@@ -14512,7 +14411,7 @@
       <c r="AB15" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="AC15" s="220">
+      <c r="AC15" s="217">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
@@ -14530,7 +14429,7 @@
       <c r="AH15" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="AI15" s="220">
+      <c r="AI15" s="217">
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
@@ -14548,7 +14447,7 @@
       <c r="AN15" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="AO15" s="220">
+      <c r="AO15" s="217">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
@@ -14571,14 +14470,14 @@
       <c r="D16" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="220">
+      <c r="E16" s="217">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="F16" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="258">
+      <c r="G16" s="255">
         <f>[1]Resumen!$H$4</f>
         <v>393.93332000000004</v>
       </c>
@@ -14589,7 +14488,7 @@
       <c r="J16" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="284">
+      <c r="K16" s="281">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -14604,10 +14503,10 @@
         <f t="shared" si="3"/>
         <v>0.14634146341463428</v>
       </c>
-      <c r="P16" s="309" t="s">
+      <c r="P16" s="306" t="s">
         <v>168</v>
       </c>
-      <c r="Q16" s="220">
+      <c r="Q16" s="217">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -14625,7 +14524,7 @@
       <c r="V16" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="W16" s="220">
+      <c r="W16" s="217">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
@@ -14643,7 +14542,7 @@
       <c r="AB16" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="AC16" s="220">
+      <c r="AC16" s="217">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
@@ -14661,7 +14560,7 @@
       <c r="AH16" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="AI16" s="220">
+      <c r="AI16" s="217">
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
@@ -14679,7 +14578,7 @@
       <c r="AN16" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="AO16" s="220">
+      <c r="AO16" s="217">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
@@ -14702,14 +14601,14 @@
       <c r="D17" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="220">
+      <c r="E17" s="217">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="F17" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="258">
+      <c r="G17" s="255">
         <f>[1]Resumen!$I$4</f>
         <v>460.98580000000004</v>
       </c>
@@ -14720,7 +14619,7 @@
       <c r="J17" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K17" s="284">
+      <c r="K17" s="281">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -14735,10 +14634,10 @@
         <f t="shared" si="3"/>
         <v>0.17021276595744683</v>
       </c>
-      <c r="P17" s="309" t="s">
+      <c r="P17" s="306" t="s">
         <v>168</v>
       </c>
-      <c r="Q17" s="220">
+      <c r="Q17" s="217">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -14756,7 +14655,7 @@
       <c r="V17" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="W17" s="220">
+      <c r="W17" s="217">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
@@ -14774,7 +14673,7 @@
       <c r="AB17" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="AC17" s="220">
+      <c r="AC17" s="217">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
@@ -14792,7 +14691,7 @@
       <c r="AH17" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="AI17" s="220">
+      <c r="AI17" s="217">
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
@@ -14810,7 +14709,7 @@
       <c r="AN17" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="AO17" s="220">
+      <c r="AO17" s="217">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
@@ -14833,14 +14732,14 @@
       <c r="D18" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="220">
+      <c r="E18" s="217">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="F18" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="259">
+      <c r="G18" s="256">
         <f>[1]Resumen!$J$4</f>
         <v>502.89359999999999</v>
       </c>
@@ -14851,7 +14750,7 @@
       <c r="J18" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="K18" s="284">
+      <c r="K18" s="281">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -14866,10 +14765,10 @@
         <f t="shared" si="3"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="P18" s="310" t="s">
+      <c r="P18" s="307" t="s">
         <v>168</v>
       </c>
-      <c r="Q18" s="220">
+      <c r="Q18" s="217">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -14887,7 +14786,7 @@
       <c r="V18" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="W18" s="220">
+      <c r="W18" s="217">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
@@ -14905,7 +14804,7 @@
       <c r="AB18" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="AC18" s="220">
+      <c r="AC18" s="217">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
@@ -14923,7 +14822,7 @@
       <c r="AH18" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="AI18" s="220">
+      <c r="AI18" s="217">
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
@@ -14941,7 +14840,7 @@
       <c r="AN18" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="AO18" s="220">
+      <c r="AO18" s="217">
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
@@ -14967,7 +14866,7 @@
       <c r="F19" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="260">
+      <c r="G19" s="257">
         <f>[1]Resumen!$D$5</f>
         <v>203.7706</v>
       </c>
@@ -14976,7 +14875,7 @@
       <c r="J19" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="K19" s="288">
+      <c r="K19" s="285">
         <v>225</v>
       </c>
       <c r="L19" s="49" t="s">
@@ -14987,7 +14886,7 @@
         <v>189.23839000000001</v>
       </c>
       <c r="N19" s="56"/>
-      <c r="P19" s="311" t="s">
+      <c r="P19" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q19" s="49">
@@ -15059,7 +14958,7 @@
       <c r="AR19" s="56"/>
     </row>
     <row r="20" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="238" t="s">
+      <c r="B20" s="235" t="s">
         <v>186</v>
       </c>
       <c r="D20" s="54" t="s">
@@ -15071,7 +14970,7 @@
       <c r="F20" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="257">
+      <c r="G20" s="254">
         <f>[1]Resumen!$E$5</f>
         <v>240.81979999999999</v>
       </c>
@@ -15083,7 +14982,7 @@
       <c r="J20" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="284">
+      <c r="K20" s="281">
         <v>225</v>
       </c>
       <c r="L20" s="172" t="s">
@@ -15097,7 +14996,7 @@
         <f t="shared" ref="N20:N25" si="15">M20/M19-1</f>
         <v>0.18181818181818188</v>
       </c>
-      <c r="P20" s="309" t="s">
+      <c r="P20" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q20" s="140">
@@ -15184,7 +15083,7 @@
       </c>
     </row>
     <row r="21" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B21" s="239">
+      <c r="B21" s="236">
         <v>120</v>
       </c>
       <c r="D21" s="54" t="s">
@@ -15196,7 +15095,7 @@
       <c r="F21" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="258">
+      <c r="G21" s="255">
         <f>[1]Resumen!$F$5</f>
         <v>314.91820000000001</v>
       </c>
@@ -15208,7 +15107,7 @@
       <c r="J21" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K21" s="284">
+      <c r="K21" s="281">
         <v>225</v>
       </c>
       <c r="L21" s="172" t="s">
@@ -15222,7 +15121,7 @@
         <f t="shared" si="15"/>
         <v>0.30769230769230749</v>
       </c>
-      <c r="P21" s="309" t="s">
+      <c r="P21" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q21" s="140">
@@ -15309,7 +15208,7 @@
       </c>
     </row>
     <row r="22" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B22" s="240">
+      <c r="B22" s="237">
         <v>225</v>
       </c>
       <c r="D22" s="54" t="s">
@@ -15321,7 +15220,7 @@
       <c r="F22" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="258">
+      <c r="G22" s="255">
         <f>[1]Resumen!$G$5</f>
         <v>379.7543</v>
       </c>
@@ -15333,7 +15232,7 @@
       <c r="J22" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K22" s="284">
+      <c r="K22" s="281">
         <v>225</v>
       </c>
       <c r="L22" s="172" t="s">
@@ -15347,7 +15246,7 @@
         <f t="shared" si="15"/>
         <v>0.20588235294117663</v>
       </c>
-      <c r="P22" s="309" t="s">
+      <c r="P22" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q22" s="140">
@@ -15434,7 +15333,7 @@
       </c>
     </row>
     <row r="23" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B23" s="240">
+      <c r="B23" s="237">
         <v>375</v>
       </c>
       <c r="D23" s="54" t="s">
@@ -15446,7 +15345,7 @@
       <c r="F23" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="258">
+      <c r="G23" s="255">
         <f>[1]Resumen!$H$5</f>
         <v>435.32810000000006</v>
       </c>
@@ -15458,7 +15357,7 @@
       <c r="J23" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K23" s="284">
+      <c r="K23" s="281">
         <v>225</v>
       </c>
       <c r="L23" s="172" t="s">
@@ -15472,7 +15371,7 @@
         <f t="shared" si="15"/>
         <v>0.14634146341463405</v>
       </c>
-      <c r="P23" s="309" t="s">
+      <c r="P23" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q23" s="140">
@@ -15559,7 +15458,7 @@
       </c>
     </row>
     <row r="24" spans="2:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="241">
+      <c r="B24" s="238">
         <v>480</v>
       </c>
       <c r="D24" s="54" t="s">
@@ -15571,7 +15470,7 @@
       <c r="F24" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="258">
+      <c r="G24" s="255">
         <f>[1]Resumen!$I$5</f>
         <v>509.42650000000003</v>
       </c>
@@ -15582,7 +15481,7 @@
       <c r="J24" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="284">
+      <c r="K24" s="281">
         <v>225</v>
       </c>
       <c r="L24" s="172" t="s">
@@ -15596,7 +15495,7 @@
         <f t="shared" si="15"/>
         <v>0.17021276595744683</v>
       </c>
-      <c r="P24" s="309" t="s">
+      <c r="P24" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q24" s="140">
@@ -15692,7 +15591,7 @@
       <c r="F25" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="259">
+      <c r="G25" s="256">
         <f>[1]Resumen!$J$5</f>
         <v>555.73800000000006</v>
       </c>
@@ -15704,7 +15603,7 @@
       <c r="J25" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="289">
+      <c r="K25" s="286">
         <v>225</v>
       </c>
       <c r="L25" s="71" t="s">
@@ -15718,7 +15617,7 @@
         <f t="shared" si="15"/>
         <v>9.090909090909105E-2</v>
       </c>
-      <c r="P25" s="310" t="s">
+      <c r="P25" s="307" t="s">
         <v>168</v>
       </c>
       <c r="Q25" s="61">
@@ -15814,7 +15713,7 @@
       <c r="F26" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="260">
+      <c r="G26" s="257">
         <f>[1]Resumen!$D$6</f>
         <v>231.45099999999999</v>
       </c>
@@ -15823,7 +15722,7 @@
       <c r="J26" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="K26" s="290">
+      <c r="K26" s="287">
         <v>375</v>
       </c>
       <c r="L26" s="85" t="s">
@@ -15834,7 +15733,7 @@
         <v>207.23065000000003</v>
       </c>
       <c r="N26" s="56"/>
-      <c r="P26" s="311" t="s">
+      <c r="P26" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q26" s="49">
@@ -15915,7 +15814,7 @@
       <c r="F27" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="257">
+      <c r="G27" s="254">
         <f>[1]Resumen!$E$6</f>
         <v>273.53300000000002</v>
       </c>
@@ -15927,7 +15826,7 @@
       <c r="J27" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K27" s="284">
+      <c r="K27" s="281">
         <v>375</v>
       </c>
       <c r="L27" s="140" t="s">
@@ -15941,7 +15840,7 @@
         <f t="shared" ref="N27:N32" si="22">M27/M26-1</f>
         <v>0.18181818181818166</v>
       </c>
-      <c r="P27" s="309" t="s">
+      <c r="P27" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q27" s="140">
@@ -16037,7 +15936,7 @@
       <c r="F28" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="258">
+      <c r="G28" s="255">
         <f>[1]Resumen!$F$6</f>
         <v>357.69699999999995</v>
       </c>
@@ -16049,7 +15948,7 @@
       <c r="J28" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K28" s="284">
+      <c r="K28" s="281">
         <v>375</v>
       </c>
       <c r="L28" s="140" t="s">
@@ -16063,7 +15962,7 @@
         <f t="shared" si="22"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="P28" s="309" t="s">
+      <c r="P28" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q28" s="140">
@@ -16159,7 +16058,7 @@
       <c r="F29" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="258">
+      <c r="G29" s="255">
         <f>[1]Resumen!$G$6</f>
         <v>431.34050000000002</v>
       </c>
@@ -16171,7 +16070,7 @@
       <c r="J29" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="284">
+      <c r="K29" s="281">
         <v>375</v>
       </c>
       <c r="L29" s="140" t="s">
@@ -16185,7 +16084,7 @@
         <f t="shared" si="22"/>
         <v>0.20588235294117641</v>
       </c>
-      <c r="P29" s="309" t="s">
+      <c r="P29" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q29" s="140">
@@ -16281,7 +16180,7 @@
       <c r="F30" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="258">
+      <c r="G30" s="255">
         <f>[1]Resumen!$H$6</f>
         <v>494.46350000000001</v>
       </c>
@@ -16293,7 +16192,7 @@
       <c r="J30" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K30" s="284">
+      <c r="K30" s="281">
         <v>375</v>
       </c>
       <c r="L30" s="140" t="s">
@@ -16307,7 +16206,7 @@
         <f t="shared" si="22"/>
         <v>0.14634146341463405</v>
       </c>
-      <c r="P30" s="309" t="s">
+      <c r="P30" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q30" s="140">
@@ -16403,7 +16302,7 @@
       <c r="F31" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="258">
+      <c r="G31" s="255">
         <f>[1]Resumen!$I$6</f>
         <v>578.62750000000005</v>
       </c>
@@ -16415,7 +16314,7 @@
       <c r="J31" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K31" s="284">
+      <c r="K31" s="281">
         <v>375</v>
       </c>
       <c r="L31" s="140" t="s">
@@ -16429,7 +16328,7 @@
         <f t="shared" si="22"/>
         <v>0.17021276595744683</v>
       </c>
-      <c r="P31" s="309" t="s">
+      <c r="P31" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q31" s="140">
@@ -16525,7 +16424,7 @@
       <c r="F32" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="259">
+      <c r="G32" s="256">
         <f>[1]Resumen!$J$6</f>
         <v>631.23</v>
       </c>
@@ -16537,7 +16436,7 @@
       <c r="J32" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="K32" s="291">
+      <c r="K32" s="288">
         <v>375</v>
       </c>
       <c r="L32" s="61" t="s">
@@ -16551,7 +16450,7 @@
         <f t="shared" si="22"/>
         <v>9.090909090909105E-2</v>
       </c>
-      <c r="P32" s="310" t="s">
+      <c r="P32" s="307" t="s">
         <v>168</v>
       </c>
       <c r="Q32" s="61">
@@ -16647,7 +16546,7 @@
       <c r="F33" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="260">
+      <c r="G33" s="257">
         <f>[1]Resumen!$D$7</f>
         <v>250.82728</v>
       </c>
@@ -16656,7 +16555,7 @@
       <c r="J33" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="K33" s="288">
+      <c r="K33" s="285">
         <v>480</v>
       </c>
       <c r="L33" s="49" t="s">
@@ -16667,7 +16566,7 @@
         <v>219.825232</v>
       </c>
       <c r="N33" s="56"/>
-      <c r="P33" s="311" t="s">
+      <c r="P33" s="308" t="s">
         <v>168</v>
       </c>
       <c r="Q33" s="49">
@@ -16748,7 +16647,7 @@
       <c r="F34" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G34" s="257">
+      <c r="G34" s="254">
         <f>[1]Resumen!$E$7</f>
         <v>296.43223999999998</v>
       </c>
@@ -16760,7 +16659,7 @@
       <c r="J34" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K34" s="284">
+      <c r="K34" s="281">
         <v>480</v>
       </c>
       <c r="L34" s="172" t="s">
@@ -16774,7 +16673,7 @@
         <f t="shared" ref="N34:N39" si="29">M34/M33-1</f>
         <v>0.18181818181818188</v>
       </c>
-      <c r="P34" s="309" t="s">
+      <c r="P34" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q34" s="140">
@@ -16870,7 +16769,7 @@
       <c r="F35" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="258">
+      <c r="G35" s="255">
         <f>[1]Resumen!$F$7</f>
         <v>387.64215999999999</v>
       </c>
@@ -16882,7 +16781,7 @@
       <c r="J35" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K35" s="284">
+      <c r="K35" s="281">
         <v>480</v>
       </c>
       <c r="L35" s="172" t="s">
@@ -16896,7 +16795,7 @@
         <f t="shared" si="29"/>
         <v>0.30769230769230771</v>
       </c>
-      <c r="P35" s="309" t="s">
+      <c r="P35" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q35" s="140">
@@ -16992,7 +16891,7 @@
       <c r="F36" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="258">
+      <c r="G36" s="255">
         <f>[1]Resumen!$G$7</f>
         <v>467.45084000000003</v>
       </c>
@@ -17004,7 +16903,7 @@
       <c r="J36" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K36" s="284">
+      <c r="K36" s="281">
         <v>480</v>
       </c>
       <c r="L36" s="172" t="s">
@@ -17018,7 +16917,7 @@
         <f t="shared" si="29"/>
         <v>0.20588235294117641</v>
       </c>
-      <c r="P36" s="309" t="s">
+      <c r="P36" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q36" s="140">
@@ -17114,7 +17013,7 @@
       <c r="F37" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="258">
+      <c r="G37" s="255">
         <f>[1]Resumen!$H$7</f>
         <v>535.85828000000004</v>
       </c>
@@ -17126,7 +17025,7 @@
       <c r="J37" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K37" s="284">
+      <c r="K37" s="281">
         <v>480</v>
       </c>
       <c r="L37" s="172" t="s">
@@ -17140,7 +17039,7 @@
         <f t="shared" si="29"/>
         <v>0.14634146341463405</v>
       </c>
-      <c r="P37" s="309" t="s">
+      <c r="P37" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q37" s="140">
@@ -17236,7 +17135,7 @@
       <c r="F38" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="258">
+      <c r="G38" s="255">
         <f>[1]Resumen!$I$7</f>
         <v>627.06820000000005</v>
       </c>
@@ -17248,7 +17147,7 @@
       <c r="J38" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K38" s="284">
+      <c r="K38" s="281">
         <v>480</v>
       </c>
       <c r="L38" s="172" t="s">
@@ -17262,7 +17161,7 @@
         <f t="shared" si="29"/>
         <v>0.17021276595744683</v>
       </c>
-      <c r="P38" s="309" t="s">
+      <c r="P38" s="306" t="s">
         <v>168</v>
       </c>
       <c r="Q38" s="140">
@@ -17358,7 +17257,7 @@
       <c r="F39" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G39" s="261">
+      <c r="G39" s="258">
         <f>[1]Resumen!$J$7</f>
         <v>684.07439999999997</v>
       </c>
@@ -17370,7 +17269,7 @@
       <c r="J39" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="K39" s="289">
+      <c r="K39" s="286">
         <v>480</v>
       </c>
       <c r="L39" s="71" t="s">
@@ -17384,7 +17283,7 @@
         <f t="shared" si="29"/>
         <v>9.0909090909090828E-2</v>
       </c>
-      <c r="P39" s="312" t="s">
+      <c r="P39" s="309" t="s">
         <v>168</v>
       </c>
       <c r="Q39" s="71">
@@ -17471,225 +17370,225 @@
       </c>
     </row>
     <row r="40" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="383" t="s">
+      <c r="D40" s="384" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="383"/>
-      <c r="F40" s="383"/>
-      <c r="G40" s="383"/>
-      <c r="H40" s="222"/>
-      <c r="I40" s="222"/>
-      <c r="J40" s="383" t="s">
+      <c r="E40" s="384"/>
+      <c r="F40" s="384"/>
+      <c r="G40" s="384"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="384" t="s">
         <v>167</v>
       </c>
-      <c r="K40" s="383"/>
-      <c r="L40" s="383"/>
-      <c r="M40" s="383"/>
-      <c r="N40" s="222"/>
-      <c r="O40" s="222"/>
-      <c r="P40" s="313" t="s">
+      <c r="K40" s="384"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="219"/>
+      <c r="O40" s="219"/>
+      <c r="P40" s="310" t="s">
         <v>169</v>
       </c>
-      <c r="Q40" s="225"/>
-      <c r="R40" s="225"/>
-      <c r="S40" s="225"/>
-      <c r="T40" s="224"/>
-      <c r="U40" s="224"/>
-      <c r="V40" s="371" t="s">
+      <c r="Q40" s="222"/>
+      <c r="R40" s="222"/>
+      <c r="S40" s="222"/>
+      <c r="T40" s="221"/>
+      <c r="U40" s="221"/>
+      <c r="V40" s="372" t="s">
         <v>171</v>
       </c>
-      <c r="W40" s="371"/>
-      <c r="X40" s="371"/>
-      <c r="Y40" s="371"/>
-      <c r="Z40" s="371"/>
-      <c r="AA40" s="224"/>
-      <c r="AB40" s="226" t="s">
+      <c r="W40" s="372"/>
+      <c r="X40" s="372"/>
+      <c r="Y40" s="372"/>
+      <c r="Z40" s="372"/>
+      <c r="AA40" s="221"/>
+      <c r="AB40" s="223" t="s">
         <v>174</v>
       </c>
-      <c r="AC40" s="224"/>
-      <c r="AD40" s="224"/>
-      <c r="AG40" s="224"/>
-      <c r="AH40" s="372" t="s">
+      <c r="AC40" s="221"/>
+      <c r="AD40" s="221"/>
+      <c r="AG40" s="221"/>
+      <c r="AH40" s="373" t="s">
         <v>175</v>
       </c>
-      <c r="AI40" s="372"/>
-      <c r="AJ40" s="372"/>
-      <c r="AK40" s="372"/>
-      <c r="AN40" s="371" t="s">
+      <c r="AI40" s="373"/>
+      <c r="AJ40" s="373"/>
+      <c r="AK40" s="373"/>
+      <c r="AN40" s="372" t="s">
         <v>177</v>
       </c>
-      <c r="AO40" s="371"/>
-      <c r="AP40" s="371"/>
-      <c r="AQ40" s="371"/>
-      <c r="AR40" s="371"/>
-      <c r="AU40" s="224"/>
-      <c r="AV40" s="224"/>
-      <c r="AW40" s="224"/>
-      <c r="AX40" s="224"/>
-      <c r="AY40" s="224"/>
+      <c r="AO40" s="372"/>
+      <c r="AP40" s="372"/>
+      <c r="AQ40" s="372"/>
+      <c r="AR40" s="372"/>
+      <c r="AU40" s="221"/>
+      <c r="AV40" s="221"/>
+      <c r="AW40" s="221"/>
+      <c r="AX40" s="221"/>
+      <c r="AY40" s="221"/>
     </row>
     <row r="41" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="370" t="s">
+      <c r="D41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="370"/>
-      <c r="F41" s="370"/>
-      <c r="G41" s="370"/>
-      <c r="H41" s="223"/>
-      <c r="I41" s="223"/>
-      <c r="J41" s="370" t="s">
+      <c r="E41" s="371"/>
+      <c r="F41" s="371"/>
+      <c r="G41" s="371"/>
+      <c r="H41" s="220"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="370"/>
-      <c r="L41" s="370"/>
-      <c r="M41" s="370"/>
-      <c r="N41" s="223"/>
-      <c r="O41" s="223"/>
-      <c r="P41" s="370" t="s">
+      <c r="K41" s="371"/>
+      <c r="L41" s="371"/>
+      <c r="M41" s="371"/>
+      <c r="N41" s="220"/>
+      <c r="O41" s="220"/>
+      <c r="P41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="Q41" s="370"/>
-      <c r="R41" s="370"/>
-      <c r="S41" s="370"/>
-      <c r="T41" s="223"/>
-      <c r="U41" s="223"/>
-      <c r="V41" s="370" t="s">
+      <c r="Q41" s="371"/>
+      <c r="R41" s="371"/>
+      <c r="S41" s="371"/>
+      <c r="T41" s="220"/>
+      <c r="U41" s="220"/>
+      <c r="V41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="W41" s="370"/>
-      <c r="X41" s="370"/>
-      <c r="Y41" s="370"/>
-      <c r="Z41" s="370"/>
-      <c r="AA41" s="223"/>
-      <c r="AB41" s="370" t="s">
+      <c r="W41" s="371"/>
+      <c r="X41" s="371"/>
+      <c r="Y41" s="371"/>
+      <c r="Z41" s="371"/>
+      <c r="AA41" s="220"/>
+      <c r="AB41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="AC41" s="370"/>
-      <c r="AD41" s="370"/>
-      <c r="AE41" s="370"/>
-      <c r="AG41" s="223"/>
-      <c r="AH41" s="370" t="s">
+      <c r="AC41" s="371"/>
+      <c r="AD41" s="371"/>
+      <c r="AE41" s="371"/>
+      <c r="AG41" s="220"/>
+      <c r="AH41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="AI41" s="370"/>
-      <c r="AJ41" s="370"/>
-      <c r="AK41" s="370"/>
-      <c r="AN41" s="370" t="s">
+      <c r="AI41" s="371"/>
+      <c r="AJ41" s="371"/>
+      <c r="AK41" s="371"/>
+      <c r="AN41" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="AO41" s="370"/>
-      <c r="AP41" s="370"/>
-      <c r="AQ41" s="370"/>
-      <c r="AR41" s="370"/>
-      <c r="AU41" s="223"/>
-      <c r="AV41" s="223"/>
-      <c r="AW41" s="223"/>
-      <c r="AX41" s="223"/>
-      <c r="AY41" s="223"/>
+      <c r="AO41" s="371"/>
+      <c r="AP41" s="371"/>
+      <c r="AQ41" s="371"/>
+      <c r="AR41" s="371"/>
+      <c r="AU41" s="220"/>
+      <c r="AV41" s="220"/>
+      <c r="AW41" s="220"/>
+      <c r="AX41" s="220"/>
+      <c r="AY41" s="220"/>
     </row>
     <row r="42" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="D42" s="370"/>
-      <c r="E42" s="370"/>
-      <c r="F42" s="370"/>
-      <c r="G42" s="370"/>
-      <c r="H42" s="223"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="370"/>
-      <c r="K42" s="370"/>
-      <c r="L42" s="370"/>
-      <c r="M42" s="370"/>
-      <c r="N42" s="223"/>
-      <c r="O42" s="223"/>
-      <c r="P42" s="370"/>
-      <c r="Q42" s="370"/>
-      <c r="R42" s="370"/>
-      <c r="S42" s="370"/>
-      <c r="T42" s="223"/>
-      <c r="U42" s="223"/>
-      <c r="V42" s="370"/>
-      <c r="W42" s="370"/>
-      <c r="X42" s="370"/>
-      <c r="Y42" s="370"/>
-      <c r="Z42" s="370"/>
-      <c r="AA42" s="223"/>
-      <c r="AB42" s="370"/>
-      <c r="AC42" s="370"/>
-      <c r="AD42" s="370"/>
-      <c r="AE42" s="370"/>
-      <c r="AF42" s="223"/>
-      <c r="AG42" s="223"/>
-      <c r="AH42" s="370"/>
-      <c r="AI42" s="370"/>
-      <c r="AJ42" s="370"/>
-      <c r="AK42" s="370"/>
-      <c r="AM42" s="223"/>
-      <c r="AN42" s="370"/>
-      <c r="AO42" s="370"/>
-      <c r="AP42" s="370"/>
-      <c r="AQ42" s="370"/>
-      <c r="AR42" s="370"/>
-      <c r="AT42" s="223"/>
-      <c r="AU42" s="223"/>
-      <c r="AV42" s="223"/>
-      <c r="AW42" s="223"/>
-      <c r="AX42" s="223"/>
-      <c r="AY42" s="223"/>
+      <c r="D42" s="371"/>
+      <c r="E42" s="371"/>
+      <c r="F42" s="371"/>
+      <c r="G42" s="371"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
+      <c r="J42" s="371"/>
+      <c r="K42" s="371"/>
+      <c r="L42" s="371"/>
+      <c r="M42" s="371"/>
+      <c r="N42" s="220"/>
+      <c r="O42" s="220"/>
+      <c r="P42" s="371"/>
+      <c r="Q42" s="371"/>
+      <c r="R42" s="371"/>
+      <c r="S42" s="371"/>
+      <c r="T42" s="220"/>
+      <c r="U42" s="220"/>
+      <c r="V42" s="371"/>
+      <c r="W42" s="371"/>
+      <c r="X42" s="371"/>
+      <c r="Y42" s="371"/>
+      <c r="Z42" s="371"/>
+      <c r="AA42" s="220"/>
+      <c r="AB42" s="371"/>
+      <c r="AC42" s="371"/>
+      <c r="AD42" s="371"/>
+      <c r="AE42" s="371"/>
+      <c r="AF42" s="220"/>
+      <c r="AG42" s="220"/>
+      <c r="AH42" s="371"/>
+      <c r="AI42" s="371"/>
+      <c r="AJ42" s="371"/>
+      <c r="AK42" s="371"/>
+      <c r="AM42" s="220"/>
+      <c r="AN42" s="371"/>
+      <c r="AO42" s="371"/>
+      <c r="AP42" s="371"/>
+      <c r="AQ42" s="371"/>
+      <c r="AR42" s="371"/>
+      <c r="AT42" s="220"/>
+      <c r="AU42" s="220"/>
+      <c r="AV42" s="220"/>
+      <c r="AW42" s="220"/>
+      <c r="AX42" s="220"/>
+      <c r="AY42" s="220"/>
     </row>
     <row r="43" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="D43" s="249"/>
-      <c r="E43" s="249"/>
-      <c r="F43" s="249"/>
-      <c r="G43" s="262"/>
-      <c r="H43" s="223"/>
-      <c r="I43" s="223"/>
-      <c r="J43" s="249"/>
-      <c r="K43" s="292"/>
-      <c r="L43" s="249"/>
-      <c r="M43" s="249"/>
-      <c r="N43" s="223"/>
-      <c r="O43" s="223"/>
-      <c r="P43" s="262"/>
-      <c r="Q43" s="249"/>
-      <c r="R43" s="249"/>
-      <c r="S43" s="249"/>
-      <c r="T43" s="223"/>
-      <c r="U43" s="223"/>
-      <c r="V43" s="249"/>
-      <c r="W43" s="249"/>
-      <c r="X43" s="249"/>
-      <c r="Y43" s="249"/>
-      <c r="Z43" s="249"/>
-      <c r="AA43" s="223"/>
-      <c r="AB43" s="249"/>
-      <c r="AC43" s="249"/>
-      <c r="AD43" s="249"/>
-      <c r="AE43" s="249"/>
-      <c r="AF43" s="223"/>
-      <c r="AG43" s="223"/>
-      <c r="AH43" s="249"/>
-      <c r="AI43" s="249"/>
-      <c r="AJ43" s="249"/>
-      <c r="AK43" s="249"/>
-      <c r="AM43" s="223"/>
-      <c r="AN43" s="249"/>
-      <c r="AO43" s="249"/>
-      <c r="AP43" s="249"/>
-      <c r="AQ43" s="249"/>
-      <c r="AR43" s="249"/>
-      <c r="AT43" s="223"/>
-      <c r="AU43" s="223"/>
-      <c r="AV43" s="223"/>
-      <c r="AW43" s="223"/>
-      <c r="AX43" s="223"/>
-      <c r="AY43" s="223"/>
+      <c r="D43" s="246"/>
+      <c r="E43" s="246"/>
+      <c r="F43" s="246"/>
+      <c r="G43" s="259"/>
+      <c r="H43" s="220"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="246"/>
+      <c r="K43" s="289"/>
+      <c r="L43" s="246"/>
+      <c r="M43" s="246"/>
+      <c r="N43" s="220"/>
+      <c r="O43" s="220"/>
+      <c r="P43" s="259"/>
+      <c r="Q43" s="246"/>
+      <c r="R43" s="246"/>
+      <c r="S43" s="246"/>
+      <c r="T43" s="220"/>
+      <c r="U43" s="220"/>
+      <c r="V43" s="246"/>
+      <c r="W43" s="246"/>
+      <c r="X43" s="246"/>
+      <c r="Y43" s="246"/>
+      <c r="Z43" s="246"/>
+      <c r="AA43" s="220"/>
+      <c r="AB43" s="246"/>
+      <c r="AC43" s="246"/>
+      <c r="AD43" s="246"/>
+      <c r="AE43" s="246"/>
+      <c r="AF43" s="220"/>
+      <c r="AG43" s="220"/>
+      <c r="AH43" s="246"/>
+      <c r="AI43" s="246"/>
+      <c r="AJ43" s="246"/>
+      <c r="AK43" s="246"/>
+      <c r="AM43" s="220"/>
+      <c r="AN43" s="246"/>
+      <c r="AO43" s="246"/>
+      <c r="AP43" s="246"/>
+      <c r="AQ43" s="246"/>
+      <c r="AR43" s="246"/>
+      <c r="AT43" s="220"/>
+      <c r="AU43" s="220"/>
+      <c r="AV43" s="220"/>
+      <c r="AW43" s="220"/>
+      <c r="AX43" s="220"/>
+      <c r="AY43" s="220"/>
     </row>
     <row r="44" spans="2:51" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="180" t="s">
         <v>256</v>
       </c>
-      <c r="G44" s="254"/>
-      <c r="K44" s="286"/>
-      <c r="P44" s="254"/>
+      <c r="G44" s="251"/>
+      <c r="K44" s="283"/>
+      <c r="P44" s="251"/>
     </row>
     <row r="45" spans="2:51" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="161" t="s">
@@ -17704,7 +17603,7 @@
       <c r="F45" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="255" t="s">
+      <c r="G45" s="252" t="s">
         <v>75</v>
       </c>
       <c r="H45" s="122" t="s">
@@ -17716,7 +17615,7 @@
       <c r="J45" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="293" t="s">
+      <c r="K45" s="290" t="s">
         <v>75</v>
       </c>
       <c r="M45" s="144" t="s">
@@ -17728,7 +17627,7 @@
       <c r="O45" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="P45" s="314" t="s">
+      <c r="P45" s="311" t="s">
         <v>75</v>
       </c>
       <c r="Q45" s="46"/>
@@ -17746,7 +17645,7 @@
       <c r="F46" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="263">
+      <c r="G46" s="260">
         <v>293.92962560000001</v>
       </c>
       <c r="H46" s="48" t="s">
@@ -17758,7 +17657,7 @@
       <c r="J46" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="K46" s="294">
+      <c r="K46" s="291">
         <v>250.70822399999997</v>
       </c>
       <c r="M46" s="118" t="s">
@@ -17770,7 +17669,7 @@
       <c r="O46" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="P46" s="315">
+      <c r="P46" s="312">
         <f>K46</f>
         <v>250.70822399999997</v>
       </c>
@@ -17797,7 +17696,7 @@
       <c r="F47" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="264">
+      <c r="G47" s="261">
         <v>367.41203200000001</v>
       </c>
       <c r="H47" s="54" t="s">
@@ -17809,19 +17708,19 @@
       <c r="J47" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="K47" s="295">
+      <c r="K47" s="292">
         <v>313.38527999999997</v>
       </c>
       <c r="M47" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N47" s="220">
+      <c r="N47" s="217">
         <v>120</v>
       </c>
       <c r="O47" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="P47" s="315">
+      <c r="P47" s="312">
         <f t="shared" ref="P47:P73" si="35">K47</f>
         <v>313.38527999999997</v>
       </c>
@@ -17847,7 +17746,7 @@
       <c r="F48" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="G48" s="264">
+      <c r="G48" s="261">
         <v>480.46188800000004</v>
       </c>
       <c r="H48" s="54" t="s">
@@ -17859,19 +17758,19 @@
       <c r="J48" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="K48" s="295">
+      <c r="K48" s="292">
         <v>409.81151999999997</v>
       </c>
       <c r="M48" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N48" s="220">
+      <c r="N48" s="217">
         <v>120</v>
       </c>
       <c r="O48" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="P48" s="315">
+      <c r="P48" s="312">
         <f t="shared" si="35"/>
         <v>409.81151999999997</v>
       </c>
@@ -17894,7 +17793,7 @@
       <c r="F49" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="264">
+      <c r="G49" s="261">
         <v>579.38051200000007</v>
       </c>
       <c r="H49" s="54" t="s">
@@ -17906,19 +17805,19 @@
       <c r="J49" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K49" s="295">
+      <c r="K49" s="292">
         <v>494.18447999999995</v>
       </c>
       <c r="M49" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N49" s="220">
+      <c r="N49" s="217">
         <v>120</v>
       </c>
       <c r="O49" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="P49" s="315">
+      <c r="P49" s="312">
         <f t="shared" si="35"/>
         <v>494.18447999999995</v>
       </c>
@@ -17941,7 +17840,7 @@
       <c r="F50" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="264">
+      <c r="G50" s="261">
         <v>664.16790400000002</v>
       </c>
       <c r="H50" s="54" t="s">
@@ -17953,19 +17852,19 @@
       <c r="J50" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="K50" s="295">
+      <c r="K50" s="292">
         <v>566.50415999999996</v>
       </c>
       <c r="M50" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N50" s="220">
+      <c r="N50" s="217">
         <v>120</v>
       </c>
       <c r="O50" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="P50" s="315">
+      <c r="P50" s="312">
         <f t="shared" si="35"/>
         <v>566.50415999999996</v>
       </c>
@@ -17979,7 +17878,7 @@
       <c r="AA50" s="139"/>
     </row>
     <row r="51" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="238" t="s">
+      <c r="B51" s="235" t="s">
         <v>186</v>
       </c>
       <c r="D51" s="54" t="s">
@@ -17991,7 +17890,7 @@
       <c r="F51" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G51" s="264">
+      <c r="G51" s="261">
         <v>777.21776</v>
       </c>
       <c r="H51" s="54" t="s">
@@ -18003,19 +17902,19 @@
       <c r="J51" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K51" s="295">
+      <c r="K51" s="292">
         <v>662.93039999999996</v>
       </c>
       <c r="M51" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N51" s="220">
+      <c r="N51" s="217">
         <v>120</v>
       </c>
       <c r="O51" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="P51" s="315">
+      <c r="P51" s="312">
         <f t="shared" si="35"/>
         <v>662.93039999999996</v>
       </c>
@@ -18029,7 +17928,7 @@
       <c r="AA51" s="139"/>
     </row>
     <row r="52" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="239">
+      <c r="B52" s="236">
         <v>120</v>
       </c>
       <c r="D52" s="60" t="s">
@@ -18041,7 +17940,7 @@
       <c r="F52" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="265">
+      <c r="G52" s="262">
         <v>904.39884800000004</v>
       </c>
       <c r="H52" s="34" t="s">
@@ -18053,7 +17952,7 @@
       <c r="J52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="296">
+      <c r="K52" s="293">
         <v>771.40991999999994</v>
       </c>
       <c r="M52" s="60" t="s">
@@ -18065,7 +17964,7 @@
       <c r="O52" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="P52" s="316">
+      <c r="P52" s="313">
         <f t="shared" si="35"/>
         <v>771.40991999999994</v>
       </c>
@@ -18079,7 +17978,7 @@
       <c r="AA52" s="139"/>
     </row>
     <row r="53" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B53" s="240">
+      <c r="B53" s="237">
         <v>225</v>
       </c>
       <c r="D53" s="48" t="s">
@@ -18091,7 +17990,7 @@
       <c r="F53" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G53" s="266">
+      <c r="G53" s="263">
         <v>385.043048</v>
       </c>
       <c r="H53" s="118" t="s">
@@ -18103,7 +18002,7 @@
       <c r="J53" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="K53" s="297">
+      <c r="K53" s="294">
         <v>317.19791999999995</v>
       </c>
       <c r="M53" s="48" t="s">
@@ -18115,7 +18014,7 @@
       <c r="O53" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="P53" s="317">
+      <c r="P53" s="314">
         <f t="shared" si="35"/>
         <v>317.19791999999995</v>
       </c>
@@ -18129,7 +18028,7 @@
       <c r="AA53" s="139"/>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B54" s="240">
+      <c r="B54" s="237">
         <v>375</v>
       </c>
       <c r="D54" s="54" t="s">
@@ -18141,7 +18040,7 @@
       <c r="F54" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="264">
+      <c r="G54" s="261">
         <v>481.30381</v>
       </c>
       <c r="H54" s="54" t="s">
@@ -18153,19 +18052,19 @@
       <c r="J54" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="K54" s="295">
+      <c r="K54" s="292">
         <v>396.49739999999997</v>
       </c>
       <c r="M54" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N54" s="220">
+      <c r="N54" s="217">
         <v>225</v>
       </c>
-      <c r="O54" s="220" t="s">
+      <c r="O54" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="P54" s="315">
+      <c r="P54" s="312">
         <f t="shared" si="35"/>
         <v>396.49739999999997</v>
       </c>
@@ -18179,7 +18078,7 @@
       <c r="AA54" s="139"/>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B55" s="240">
+      <c r="B55" s="237">
         <v>575</v>
       </c>
       <c r="D55" s="54" t="s">
@@ -18191,7 +18090,7 @@
       <c r="F55" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="G55" s="264">
+      <c r="G55" s="261">
         <v>629.39729</v>
       </c>
       <c r="H55" s="54" t="s">
@@ -18203,19 +18102,19 @@
       <c r="J55" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="K55" s="295">
+      <c r="K55" s="292">
         <v>518.49659999999994</v>
       </c>
       <c r="M55" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N55" s="220">
+      <c r="N55" s="217">
         <v>225</v>
       </c>
-      <c r="O55" s="220" t="s">
+      <c r="O55" s="217" t="s">
         <v>82</v>
       </c>
-      <c r="P55" s="315">
+      <c r="P55" s="312">
         <f t="shared" si="35"/>
         <v>518.49659999999994</v>
       </c>
@@ -18229,7 +18128,7 @@
       <c r="AA55" s="139"/>
     </row>
     <row r="56" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="241">
+      <c r="B56" s="238">
         <v>820</v>
       </c>
       <c r="D56" s="54" t="s">
@@ -18241,7 +18140,7 @@
       <c r="F56" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="264">
+      <c r="G56" s="261">
         <v>758.97908500000005</v>
       </c>
       <c r="H56" s="54" t="s">
@@ -18253,19 +18152,19 @@
       <c r="J56" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K56" s="295">
+      <c r="K56" s="292">
         <v>625.24590000000001</v>
       </c>
       <c r="M56" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N56" s="220">
+      <c r="N56" s="217">
         <v>225</v>
       </c>
-      <c r="O56" s="220" t="s">
+      <c r="O56" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="P56" s="315">
+      <c r="P56" s="312">
         <f t="shared" si="35"/>
         <v>625.24590000000001</v>
       </c>
@@ -18288,7 +18187,7 @@
       <c r="F57" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="G57" s="264">
+      <c r="G57" s="261">
         <v>870.04919500000005</v>
       </c>
       <c r="H57" s="54" t="s">
@@ -18300,19 +18199,19 @@
       <c r="J57" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="K57" s="295">
+      <c r="K57" s="292">
         <v>716.74530000000004</v>
       </c>
       <c r="M57" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N57" s="220">
+      <c r="N57" s="217">
         <v>225</v>
       </c>
-      <c r="O57" s="220" t="s">
+      <c r="O57" s="217" t="s">
         <v>86</v>
       </c>
-      <c r="P57" s="315">
+      <c r="P57" s="312">
         <f t="shared" si="35"/>
         <v>716.74530000000004</v>
       </c>
@@ -18335,7 +18234,7 @@
       <c r="F58" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G58" s="264">
+      <c r="G58" s="261">
         <v>1018.1426750000001</v>
       </c>
       <c r="H58" s="54" t="s">
@@ -18347,19 +18246,19 @@
       <c r="J58" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K58" s="295">
+      <c r="K58" s="292">
         <v>838.74450000000002</v>
       </c>
       <c r="M58" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N58" s="220">
+      <c r="N58" s="217">
         <v>225</v>
       </c>
-      <c r="O58" s="220" t="s">
+      <c r="O58" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="P58" s="315">
+      <c r="P58" s="312">
         <f t="shared" si="35"/>
         <v>838.74450000000002</v>
       </c>
@@ -18382,7 +18281,7 @@
       <c r="F59" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G59" s="265">
+      <c r="G59" s="262">
         <v>1184.74784</v>
       </c>
       <c r="H59" s="34" t="s">
@@ -18394,7 +18293,7 @@
       <c r="J59" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K59" s="296">
+      <c r="K59" s="293">
         <v>975.99360000000001</v>
       </c>
       <c r="M59" s="34" t="s">
@@ -18406,7 +18305,7 @@
       <c r="O59" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="P59" s="318">
+      <c r="P59" s="315">
         <f t="shared" si="35"/>
         <v>975.99360000000001</v>
       </c>
@@ -18422,7 +18321,7 @@
       <c r="F60" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G60" s="266">
+      <c r="G60" s="263">
         <v>515.20508000000007</v>
       </c>
       <c r="H60" s="118" t="s">
@@ -18434,7 +18333,7 @@
       <c r="J60" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="K60" s="297">
+      <c r="K60" s="294">
         <v>412.1832</v>
       </c>
       <c r="M60" s="118" t="s">
@@ -18446,7 +18345,7 @@
       <c r="O60" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="P60" s="315">
+      <c r="P60" s="312">
         <f t="shared" si="35"/>
         <v>412.1832</v>
       </c>
@@ -18462,7 +18361,7 @@
       <c r="F61" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="G61" s="264">
+      <c r="G61" s="261">
         <v>644.00635</v>
       </c>
       <c r="H61" s="54" t="s">
@@ -18474,7 +18373,7 @@
       <c r="J61" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="K61" s="295">
+      <c r="K61" s="292">
         <v>515.22900000000004</v>
       </c>
       <c r="M61" s="54" t="s">
@@ -18486,7 +18385,7 @@
       <c r="O61" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="P61" s="315">
+      <c r="P61" s="312">
         <f t="shared" si="35"/>
         <v>515.22900000000004</v>
       </c>
@@ -18502,7 +18401,7 @@
       <c r="F62" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="G62" s="264">
+      <c r="G62" s="261">
         <v>842.16215</v>
       </c>
       <c r="H62" s="54" t="s">
@@ -18514,7 +18413,7 @@
       <c r="J62" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="K62" s="295">
+      <c r="K62" s="292">
         <v>673.76099999999997</v>
       </c>
       <c r="M62" s="54" t="s">
@@ -18526,7 +18425,7 @@
       <c r="O62" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="P62" s="315">
+      <c r="P62" s="312">
         <f t="shared" si="35"/>
         <v>673.76099999999997</v>
       </c>
@@ -18542,7 +18441,7 @@
       <c r="F63" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="264">
+      <c r="G63" s="261">
         <v>1015.5484750000001</v>
       </c>
       <c r="H63" s="54" t="s">
@@ -18554,7 +18453,7 @@
       <c r="J63" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K63" s="295">
+      <c r="K63" s="292">
         <v>812.47649999999999</v>
       </c>
       <c r="M63" s="54" t="s">
@@ -18566,7 +18465,7 @@
       <c r="O63" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="P63" s="315">
+      <c r="P63" s="312">
         <f t="shared" si="35"/>
         <v>812.47649999999999</v>
       </c>
@@ -18582,7 +18481,7 @@
       <c r="F64" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="G64" s="264">
+      <c r="G64" s="261">
         <v>1164.1653249999999</v>
       </c>
       <c r="H64" s="54" t="s">
@@ -18594,7 +18493,7 @@
       <c r="J64" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="K64" s="295">
+      <c r="K64" s="292">
         <v>931.37549999999999</v>
       </c>
       <c r="M64" s="54" t="s">
@@ -18606,7 +18505,7 @@
       <c r="O64" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="P64" s="315">
+      <c r="P64" s="312">
         <f t="shared" si="35"/>
         <v>931.37549999999999</v>
       </c>
@@ -18622,7 +18521,7 @@
       <c r="F65" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G65" s="264">
+      <c r="G65" s="261">
         <v>1362.3211249999999</v>
       </c>
       <c r="H65" s="54" t="s">
@@ -18634,7 +18533,7 @@
       <c r="J65" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K65" s="295">
+      <c r="K65" s="292">
         <v>1089.9075</v>
       </c>
       <c r="M65" s="54" t="s">
@@ -18646,7 +18545,7 @@
       <c r="O65" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="P65" s="315">
+      <c r="P65" s="312">
         <f t="shared" si="35"/>
         <v>1089.9075</v>
       </c>
@@ -18670,7 +18569,7 @@
       <c r="F66" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="265">
+      <c r="G66" s="262">
         <v>1585.2464000000002</v>
       </c>
       <c r="H66" s="34" t="s">
@@ -18682,7 +18581,7 @@
       <c r="J66" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K66" s="296">
+      <c r="K66" s="293">
         <v>1268.2559999999999</v>
       </c>
       <c r="M66" s="60" t="s">
@@ -18694,7 +18593,7 @@
       <c r="O66" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="P66" s="316">
+      <c r="P66" s="313">
         <f t="shared" si="35"/>
         <v>1268.2559999999999</v>
       </c>
@@ -18718,7 +18617,7 @@
       <c r="F67" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G67" s="266">
+      <c r="G67" s="263">
         <v>688.75445600000012</v>
       </c>
       <c r="H67" s="118" t="s">
@@ -18730,7 +18629,7 @@
       <c r="J67" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="K67" s="297">
+      <c r="K67" s="294">
         <v>538.83024</v>
       </c>
       <c r="M67" s="48" t="s">
@@ -18742,7 +18641,7 @@
       <c r="O67" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="P67" s="317">
+      <c r="P67" s="314">
         <f t="shared" si="35"/>
         <v>538.83024</v>
       </c>
@@ -18766,7 +18665,7 @@
       <c r="F68" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="G68" s="264">
+      <c r="G68" s="261">
         <v>860.94307000000003</v>
       </c>
       <c r="H68" s="54" t="s">
@@ -18778,19 +18677,19 @@
       <c r="J68" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="K68" s="295">
+      <c r="K68" s="292">
         <v>673.53779999999995</v>
       </c>
       <c r="M68" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N68" s="220">
+      <c r="N68" s="217">
         <v>575</v>
       </c>
-      <c r="O68" s="220" t="s">
+      <c r="O68" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="P68" s="315">
+      <c r="P68" s="312">
         <f t="shared" si="35"/>
         <v>673.53779999999995</v>
       </c>
@@ -18814,7 +18713,7 @@
       <c r="F69" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="G69" s="264">
+      <c r="G69" s="261">
         <v>1125.8486300000002</v>
       </c>
       <c r="H69" s="54" t="s">
@@ -18826,19 +18725,19 @@
       <c r="J69" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="K69" s="295">
+      <c r="K69" s="292">
         <v>880.78020000000004</v>
       </c>
       <c r="M69" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N69" s="220">
+      <c r="N69" s="217">
         <v>575</v>
       </c>
-      <c r="O69" s="220" t="s">
+      <c r="O69" s="217" t="s">
         <v>82</v>
       </c>
-      <c r="P69" s="315">
+      <c r="P69" s="312">
         <f t="shared" si="35"/>
         <v>880.78020000000004</v>
       </c>
@@ -18862,7 +18761,7 @@
       <c r="F70" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="264">
+      <c r="G70" s="261">
         <v>1357.6409950000002</v>
       </c>
       <c r="H70" s="54" t="s">
@@ -18874,19 +18773,19 @@
       <c r="J70" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="K70" s="295">
+      <c r="K70" s="292">
         <v>1062.1172999999999</v>
       </c>
       <c r="M70" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N70" s="220">
+      <c r="N70" s="217">
         <v>575</v>
       </c>
-      <c r="O70" s="220" t="s">
+      <c r="O70" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="P70" s="315">
+      <c r="P70" s="312">
         <f t="shared" si="35"/>
         <v>1062.1172999999999</v>
       </c>
@@ -18910,7 +18809,7 @@
       <c r="F71" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="G71" s="264">
+      <c r="G71" s="261">
         <v>1556.3201650000001</v>
       </c>
       <c r="H71" s="54" t="s">
@@ -18922,19 +18821,19 @@
       <c r="J71" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="K71" s="295">
+      <c r="K71" s="292">
         <v>1217.5491</v>
       </c>
       <c r="M71" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N71" s="220">
+      <c r="N71" s="217">
         <v>575</v>
       </c>
-      <c r="O71" s="220" t="s">
+      <c r="O71" s="217" t="s">
         <v>86</v>
       </c>
-      <c r="P71" s="315">
+      <c r="P71" s="312">
         <f t="shared" si="35"/>
         <v>1217.5491</v>
       </c>
@@ -18958,7 +18857,7 @@
       <c r="F72" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="G72" s="264">
+      <c r="G72" s="261">
         <v>1821.225725</v>
       </c>
       <c r="H72" s="54" t="s">
@@ -18970,19 +18869,19 @@
       <c r="J72" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K72" s="295">
+      <c r="K72" s="292">
         <v>1424.7915</v>
       </c>
       <c r="M72" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N72" s="220">
+      <c r="N72" s="217">
         <v>575</v>
       </c>
-      <c r="O72" s="220" t="s">
+      <c r="O72" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="P72" s="315">
+      <c r="P72" s="312">
         <f t="shared" si="35"/>
         <v>1424.7915</v>
       </c>
@@ -19006,7 +18905,7 @@
       <c r="F73" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G73" s="265">
+      <c r="G73" s="262">
         <v>2119.2444799999998</v>
       </c>
       <c r="H73" s="34" t="s">
@@ -19018,7 +18917,7 @@
       <c r="J73" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K73" s="296">
+      <c r="K73" s="293">
         <v>1657.9391999999998</v>
       </c>
       <c r="M73" s="34" t="s">
@@ -19030,7 +18929,7 @@
       <c r="O73" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="P73" s="318">
+      <c r="P73" s="315">
         <f t="shared" si="35"/>
         <v>1657.9391999999998</v>
       </c>
@@ -19054,7 +18953,7 @@
       <c r="F74" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G74" s="266">
+      <c r="G74" s="263">
         <v>901.35244160000002</v>
       </c>
       <c r="H74" s="48" t="s">
@@ -19066,7 +18965,7 @@
       <c r="J74" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="K74" s="294">
+      <c r="K74" s="291">
         <v>693.97286399999996</v>
       </c>
       <c r="M74" s="118" t="s">
@@ -19078,12 +18977,12 @@
       <c r="O74" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="P74" s="317">
+      <c r="P74" s="314">
         <f>K74</f>
         <v>693.97286399999996</v>
       </c>
-      <c r="Q74" s="224"/>
-      <c r="R74" s="224"/>
+      <c r="Q74" s="221"/>
+      <c r="R74" s="221"/>
       <c r="S74" s="70"/>
       <c r="T74" s="70"/>
       <c r="U74" s="70"/>
@@ -19104,7 +19003,7 @@
       <c r="F75" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="G75" s="264">
+      <c r="G75" s="261">
         <v>1126.6905519999998</v>
       </c>
       <c r="H75" s="54" t="s">
@@ -19116,24 +19015,24 @@
       <c r="J75" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="K75" s="295">
+      <c r="K75" s="292">
         <v>867.46608000000003</v>
       </c>
       <c r="M75" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N75" s="220">
+      <c r="N75" s="217">
         <v>820</v>
       </c>
-      <c r="O75" s="220" t="s">
+      <c r="O75" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="P75" s="315">
+      <c r="P75" s="312">
         <f t="shared" ref="P75:P80" si="36">K75</f>
         <v>867.46608000000003</v>
       </c>
-      <c r="Q75" s="223"/>
-      <c r="R75" s="223"/>
+      <c r="Q75" s="220"/>
+      <c r="R75" s="220"/>
     </row>
     <row r="76" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D76" s="54" t="s">
@@ -19145,7 +19044,7 @@
       <c r="F76" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="G76" s="264">
+      <c r="G76" s="261">
         <v>1473.364568</v>
       </c>
       <c r="H76" s="54" t="s">
@@ -19157,24 +19056,24 @@
       <c r="J76" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="K76" s="295">
+      <c r="K76" s="292">
         <v>1134.3787199999999</v>
       </c>
       <c r="M76" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N76" s="220">
+      <c r="N76" s="217">
         <v>820</v>
       </c>
-      <c r="O76" s="220" t="s">
+      <c r="O76" s="217" t="s">
         <v>82</v>
       </c>
-      <c r="P76" s="315">
+      <c r="P76" s="312">
         <f t="shared" si="36"/>
         <v>1134.3787199999999</v>
       </c>
-      <c r="Q76" s="223"/>
-      <c r="R76" s="223"/>
+      <c r="Q76" s="220"/>
+      <c r="R76" s="220"/>
     </row>
     <row r="77" spans="4:27" x14ac:dyDescent="0.25">
       <c r="D77" s="54" t="s">
@@ -19186,7 +19085,7 @@
       <c r="F77" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="G77" s="264">
+      <c r="G77" s="261">
         <v>1776.704332</v>
       </c>
       <c r="H77" s="54" t="s">
@@ -19198,19 +19097,19 @@
       <c r="J77" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="K77" s="295">
+      <c r="K77" s="292">
         <v>1367.9272800000001</v>
       </c>
       <c r="M77" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N77" s="220">
+      <c r="N77" s="217">
         <v>820</v>
       </c>
-      <c r="O77" s="220" t="s">
+      <c r="O77" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="P77" s="315">
+      <c r="P77" s="312">
         <f t="shared" si="36"/>
         <v>1367.9272800000001</v>
       </c>
@@ -19225,7 +19124,7 @@
       <c r="F78" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="G78" s="264">
+      <c r="G78" s="261">
         <v>2036.709844</v>
       </c>
       <c r="H78" s="54" t="s">
@@ -19237,19 +19136,19 @@
       <c r="J78" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="K78" s="295">
+      <c r="K78" s="292">
         <v>1568.11176</v>
       </c>
       <c r="M78" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N78" s="220">
+      <c r="N78" s="217">
         <v>820</v>
       </c>
-      <c r="O78" s="220" t="s">
+      <c r="O78" s="217" t="s">
         <v>86</v>
       </c>
-      <c r="P78" s="315">
+      <c r="P78" s="312">
         <f t="shared" si="36"/>
         <v>1568.11176</v>
       </c>
@@ -19264,7 +19163,7 @@
       <c r="F79" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="G79" s="264">
+      <c r="G79" s="261">
         <v>2383.3838599999999</v>
       </c>
       <c r="H79" s="54" t="s">
@@ -19276,19 +19175,19 @@
       <c r="J79" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="K79" s="295">
+      <c r="K79" s="292">
         <v>1835.0244</v>
       </c>
       <c r="M79" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="N79" s="220">
+      <c r="N79" s="217">
         <v>820</v>
       </c>
-      <c r="O79" s="220" t="s">
+      <c r="O79" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="P79" s="315">
+      <c r="P79" s="312">
         <f t="shared" si="36"/>
         <v>1835.0244</v>
       </c>
@@ -19303,7 +19202,7 @@
       <c r="F80" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G80" s="267">
+      <c r="G80" s="264">
         <v>2773.392128</v>
       </c>
       <c r="H80" s="34" t="s">
@@ -19315,7 +19214,7 @@
       <c r="J80" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K80" s="296">
+      <c r="K80" s="293">
         <v>2135.3011200000001</v>
       </c>
       <c r="M80" s="34" t="s">
@@ -19327,61 +19226,61 @@
       <c r="O80" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="P80" s="318">
+      <c r="P80" s="315">
         <f t="shared" si="36"/>
         <v>2135.3011200000001</v>
       </c>
     </row>
     <row r="81" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="386" t="s">
+      <c r="D81" s="387" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="386"/>
-      <c r="F81" s="386"/>
-      <c r="G81" s="386"/>
-      <c r="H81" s="386"/>
-      <c r="I81" s="386"/>
-      <c r="J81" s="386"/>
-      <c r="K81" s="386"/>
-      <c r="M81" s="372" t="s">
+      <c r="E81" s="387"/>
+      <c r="F81" s="387"/>
+      <c r="G81" s="387"/>
+      <c r="H81" s="387"/>
+      <c r="I81" s="387"/>
+      <c r="J81" s="387"/>
+      <c r="K81" s="387"/>
+      <c r="M81" s="373" t="s">
         <v>179</v>
       </c>
-      <c r="N81" s="372"/>
-      <c r="O81" s="372"/>
-      <c r="P81" s="372"/>
+      <c r="N81" s="373"/>
+      <c r="O81" s="373"/>
+      <c r="P81" s="373"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D82" s="387"/>
-      <c r="E82" s="387"/>
-      <c r="F82" s="387"/>
-      <c r="G82" s="387"/>
-      <c r="H82" s="387"/>
-      <c r="I82" s="387"/>
-      <c r="J82" s="387"/>
-      <c r="K82" s="387"/>
-      <c r="M82" s="370" t="s">
+      <c r="D82" s="388"/>
+      <c r="E82" s="388"/>
+      <c r="F82" s="388"/>
+      <c r="G82" s="388"/>
+      <c r="H82" s="388"/>
+      <c r="I82" s="388"/>
+      <c r="J82" s="388"/>
+      <c r="K82" s="388"/>
+      <c r="M82" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="N82" s="370"/>
-      <c r="O82" s="370"/>
-      <c r="P82" s="370"/>
+      <c r="N82" s="371"/>
+      <c r="O82" s="371"/>
+      <c r="P82" s="371"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M83" s="370"/>
-      <c r="N83" s="370"/>
-      <c r="O83" s="370"/>
-      <c r="P83" s="370"/>
+      <c r="M83" s="371"/>
+      <c r="N83" s="371"/>
+      <c r="O83" s="371"/>
+      <c r="P83" s="371"/>
     </row>
     <row r="84" spans="2:20" s="179" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D84" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="G84" s="254"/>
-      <c r="K84" s="286"/>
+      <c r="G84" s="251"/>
+      <c r="K84" s="283"/>
       <c r="L84" s="179" t="s">
         <v>248</v>
       </c>
-      <c r="P84" s="254"/>
+      <c r="P84" s="251"/>
     </row>
     <row r="85" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D85" s="42" t="s">
@@ -19393,10 +19292,10 @@
       <c r="L85" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="N85" s="230" t="s">
+      <c r="N85" s="227" t="s">
         <v>184</v>
       </c>
-      <c r="O85" s="230" t="s">
+      <c r="O85" s="227" t="s">
         <v>250</v>
       </c>
       <c r="R85" s="42"/>
@@ -19435,10 +19334,10 @@
       <c r="O86" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="S86" s="344" t="s">
+      <c r="S86" s="341" t="s">
         <v>268</v>
       </c>
-      <c r="T86" s="345" t="s">
+      <c r="T86" s="342" t="s">
         <v>269</v>
       </c>
     </row>
@@ -19470,10 +19369,10 @@
       <c r="L87" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="M87" s="231">
+      <c r="M87" s="228">
         <v>30</v>
       </c>
-      <c r="N87" s="234">
+      <c r="N87" s="231">
         <f>[2]CGA!$C$21</f>
         <v>22.155017759339628</v>
       </c>
@@ -19484,7 +19383,7 @@
       <c r="S87" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="T87" s="220">
+      <c r="T87" s="217">
         <v>11</v>
       </c>
     </row>
@@ -19506,7 +19405,7 @@
       <c r="H88" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="I88" s="220">
+      <c r="I88" s="217">
         <f>[2]CEI!$D$5</f>
         <v>2.95</v>
       </c>
@@ -19517,10 +19416,10 @@
       <c r="L88" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="M88" s="221">
+      <c r="M88" s="218">
         <v>30</v>
       </c>
-      <c r="N88" s="235">
+      <c r="N88" s="232">
         <f>[2]CGA!$E$21</f>
         <v>22.573036962346041</v>
       </c>
@@ -19531,7 +19430,7 @@
       <c r="S88" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="T88" s="220">
+      <c r="T88" s="217">
         <v>10</v>
       </c>
     </row>
@@ -19542,7 +19441,7 @@
       <c r="D89" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="220">
+      <c r="E89" s="217">
         <f t="shared" si="37"/>
         <v>15</v>
       </c>
@@ -19553,7 +19452,7 @@
       <c r="H89" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="I89" s="220">
+      <c r="I89" s="217">
         <f>[2]CEI!$E$5</f>
         <v>4.05</v>
       </c>
@@ -19564,10 +19463,10 @@
       <c r="L89" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="M89" s="221">
+      <c r="M89" s="218">
         <v>30</v>
       </c>
-      <c r="N89" s="235">
+      <c r="N89" s="232">
         <f>[2]CGA!$G$21</f>
         <v>23.458254098124314</v>
       </c>
@@ -19578,7 +19477,7 @@
       <c r="S89" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="T89" s="220">
+      <c r="T89" s="217">
         <v>9</v>
       </c>
     </row>
@@ -19586,7 +19485,7 @@
       <c r="D90" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E90" s="220">
+      <c r="E90" s="217">
         <f t="shared" si="37"/>
         <v>15</v>
       </c>
@@ -19597,7 +19496,7 @@
       <c r="H90" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="I90" s="220">
+      <c r="I90" s="217">
         <f>[2]CEI!$F$5</f>
         <v>5.15</v>
       </c>
@@ -19608,10 +19507,10 @@
       <c r="L90" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="M90" s="221">
+      <c r="M90" s="218">
         <v>30</v>
       </c>
-      <c r="N90" s="235">
+      <c r="N90" s="232">
         <f>[2]CGA!$I$21</f>
         <v>24.415733857231434</v>
       </c>
@@ -19622,7 +19521,7 @@
       <c r="S90" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="T90" s="220">
+      <c r="T90" s="217">
         <v>8</v>
       </c>
     </row>
@@ -19630,7 +19529,7 @@
       <c r="D91" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E91" s="220">
+      <c r="E91" s="217">
         <f t="shared" si="37"/>
         <v>15</v>
       </c>
@@ -19641,7 +19540,7 @@
       <c r="H91" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I91" s="220">
+      <c r="I91" s="217">
         <f>[2]CEI!$G$5</f>
         <v>6.25</v>
       </c>
@@ -19652,10 +19551,10 @@
       <c r="L91" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="M91" s="221">
+      <c r="M91" s="218">
         <v>30</v>
       </c>
-      <c r="N91" s="235">
+      <c r="N91" s="232">
         <f>[2]CGA!$K$21</f>
         <v>25.275442795866343</v>
       </c>
@@ -19666,18 +19565,18 @@
       <c r="S91" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="T91" s="220">
+      <c r="T91" s="217">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B92" s="227" t="s">
+      <c r="B92" s="224" t="s">
         <v>245</v>
       </c>
       <c r="D92" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="E92" s="220">
+      <c r="E92" s="217">
         <f t="shared" si="37"/>
         <v>15</v>
       </c>
@@ -19688,7 +19587,7 @@
       <c r="H92" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I92" s="220">
+      <c r="I92" s="217">
         <f>[2]CEI!$H$5</f>
         <v>7.35</v>
       </c>
@@ -19696,16 +19595,16 @@
         <f>[2]CEI!$H$7</f>
         <v>885.3075</v>
       </c>
-      <c r="K92" s="298" t="s">
+      <c r="K92" s="295" t="s">
         <v>249</v>
       </c>
       <c r="L92" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="M92" s="221">
+      <c r="M92" s="218">
         <v>30</v>
       </c>
-      <c r="N92" s="235">
+      <c r="N92" s="232">
         <f>[2]CGA!$M$21</f>
         <v>26.008064326181305</v>
       </c>
@@ -19716,18 +19615,18 @@
       <c r="S92" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="T92" s="220">
+      <c r="T92" s="217">
         <v>6</v>
       </c>
     </row>
     <row r="93" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="227">
+      <c r="B93" s="224">
         <v>15</v>
       </c>
       <c r="D93" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="E93" s="220">
+      <c r="E93" s="217">
         <f t="shared" si="37"/>
         <v>15</v>
       </c>
@@ -19746,16 +19645,16 @@
         <f>[2]CEI!$I$7</f>
         <v>951.55500000000006</v>
       </c>
-      <c r="K93" s="298">
+      <c r="K93" s="295">
         <v>30</v>
       </c>
       <c r="L93" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="M93" s="232">
+      <c r="M93" s="229">
         <v>30</v>
       </c>
-      <c r="N93" s="236">
+      <c r="N93" s="233">
         <f>[2]CGA!$O$21</f>
         <v>26.39053586038985</v>
       </c>
@@ -19766,12 +19665,12 @@
       <c r="S93" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="T93" s="220">
+      <c r="T93" s="217">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B94" s="227">
+      <c r="B94" s="224">
         <v>50</v>
       </c>
       <c r="D94" s="73" t="s">
@@ -19784,21 +19683,21 @@
         <f>[2]CEA!$D$21</f>
         <v>600.4777107007576</v>
       </c>
-      <c r="H94" s="384" t="s">
+      <c r="H94" s="385" t="s">
         <v>239</v>
       </c>
-      <c r="I94" s="384"/>
-      <c r="J94" s="384"/>
-      <c r="K94" s="298">
+      <c r="I94" s="385"/>
+      <c r="J94" s="385"/>
+      <c r="K94" s="295">
         <v>150</v>
       </c>
       <c r="L94" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="M94" s="231">
+      <c r="M94" s="228">
         <v>150</v>
       </c>
-      <c r="N94" s="234">
+      <c r="N94" s="231">
         <f>[2]CGA!$D$21</f>
         <v>110.77508879669814</v>
       </c>
@@ -19809,18 +19708,18 @@
       <c r="S94" s="43" t="s">
         <v>275</v>
       </c>
-      <c r="T94" s="220">
+      <c r="T94" s="217">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B95" s="227">
+      <c r="B95" s="224">
         <v>150</v>
       </c>
       <c r="D95" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="E95" s="220">
+      <c r="E95" s="217">
         <f t="shared" ref="E95:E100" si="38">+E94</f>
         <v>50</v>
       </c>
@@ -19828,16 +19727,16 @@
         <f>[2]CEA!$G$21</f>
         <v>625.34956854043412</v>
       </c>
-      <c r="H95" s="385"/>
-      <c r="I95" s="385"/>
-      <c r="J95" s="385"/>
+      <c r="H95" s="386"/>
+      <c r="I95" s="386"/>
+      <c r="J95" s="386"/>
       <c r="L95" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="M95" s="221">
+      <c r="M95" s="218">
         <v>150</v>
       </c>
-      <c r="N95" s="235">
+      <c r="N95" s="232">
         <f>[2]CGA!$F$21</f>
         <v>112.8651848117302</v>
       </c>
@@ -19848,7 +19747,7 @@
       <c r="S95" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="T95" s="220">
+      <c r="T95" s="217">
         <v>3</v>
       </c>
     </row>
@@ -19856,7 +19755,7 @@
       <c r="D96" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E96" s="220">
+      <c r="E96" s="217">
         <f t="shared" si="38"/>
         <v>50</v>
       </c>
@@ -19864,16 +19763,16 @@
         <f>[2]CEA!$J$21</f>
         <v>688.94443991742742</v>
       </c>
-      <c r="H96" s="385"/>
-      <c r="I96" s="385"/>
-      <c r="J96" s="385"/>
+      <c r="H96" s="386"/>
+      <c r="I96" s="386"/>
+      <c r="J96" s="386"/>
       <c r="L96" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="M96" s="221">
+      <c r="M96" s="218">
         <v>150</v>
       </c>
-      <c r="N96" s="235">
+      <c r="N96" s="232">
         <f>[2]CGA!$H$21</f>
         <v>117.29127049062157</v>
       </c>
@@ -19884,7 +19783,7 @@
       <c r="S96" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="T96" s="220">
+      <c r="T96" s="217">
         <v>2</v>
       </c>
     </row>
@@ -19892,7 +19791,7 @@
       <c r="D97" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E97" s="220">
+      <c r="E97" s="217">
         <f t="shared" si="38"/>
         <v>50</v>
       </c>
@@ -19903,10 +19802,10 @@
       <c r="L97" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="M97" s="221">
+      <c r="M97" s="218">
         <v>150</v>
       </c>
-      <c r="N97" s="235">
+      <c r="N97" s="232">
         <f>[2]CGA!$J$21</f>
         <v>122.07866928615717</v>
       </c>
@@ -19917,7 +19816,7 @@
       <c r="S97" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="T97" s="220">
+      <c r="T97" s="217">
         <v>1</v>
       </c>
     </row>
@@ -19925,7 +19824,7 @@
       <c r="D98" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E98" s="220">
+      <c r="E98" s="217">
         <f t="shared" si="38"/>
         <v>50</v>
       </c>
@@ -19936,10 +19835,10 @@
       <c r="L98" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="M98" s="221">
+      <c r="M98" s="218">
         <v>150</v>
       </c>
-      <c r="N98" s="235">
+      <c r="N98" s="232">
         <f>[2]CGA!$L$21</f>
         <v>126.37721397933173</v>
       </c>
@@ -19950,7 +19849,7 @@
       <c r="S98" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="T98" s="220">
+      <c r="T98" s="217">
         <v>0</v>
       </c>
     </row>
@@ -19958,7 +19857,7 @@
       <c r="D99" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="E99" s="220">
+      <c r="E99" s="217">
         <f t="shared" si="38"/>
         <v>50</v>
       </c>
@@ -19969,10 +19868,10 @@
       <c r="L99" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="M99" s="221">
+      <c r="M99" s="218">
         <v>150</v>
       </c>
-      <c r="N99" s="235">
+      <c r="N99" s="232">
         <f>[2]CGA!$N$21</f>
         <v>130.04032163090656</v>
       </c>
@@ -19985,7 +19884,7 @@
       <c r="D100" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="E100" s="220">
+      <c r="E100" s="217">
         <f t="shared" si="38"/>
         <v>50</v>
       </c>
@@ -19996,10 +19895,10 @@
       <c r="L100" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="M100" s="233">
+      <c r="M100" s="230">
         <v>150</v>
       </c>
-      <c r="N100" s="237">
+      <c r="N100" s="234">
         <f>[2]CGA!$P$21</f>
         <v>135.95124534140228</v>
       </c>
@@ -20019,20 +19918,20 @@
         <f>[2]CEA!$E$21</f>
         <v>1801.433132102273</v>
       </c>
-      <c r="K101" s="299"/>
-      <c r="L101" s="380" t="s">
+      <c r="K101" s="296"/>
+      <c r="L101" s="381" t="s">
         <v>239</v>
       </c>
-      <c r="M101" s="380"/>
-      <c r="N101" s="380"/>
-      <c r="O101" s="380"/>
-      <c r="P101" s="319"/>
+      <c r="M101" s="381"/>
+      <c r="N101" s="381"/>
+      <c r="O101" s="381"/>
+      <c r="P101" s="316"/>
     </row>
     <row r="102" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D102" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="E102" s="220">
+      <c r="E102" s="217">
         <f t="shared" ref="E102:E107" si="39">+E101</f>
         <v>150</v>
       </c>
@@ -20040,18 +19939,18 @@
         <f>[2]CEA!$H$21</f>
         <v>1945.1057131901846</v>
       </c>
-      <c r="K102" s="299"/>
-      <c r="L102" s="381"/>
-      <c r="M102" s="381"/>
-      <c r="N102" s="381"/>
-      <c r="O102" s="381"/>
-      <c r="P102" s="319"/>
+      <c r="K102" s="296"/>
+      <c r="L102" s="382"/>
+      <c r="M102" s="382"/>
+      <c r="N102" s="382"/>
+      <c r="O102" s="382"/>
+      <c r="P102" s="316"/>
     </row>
     <row r="103" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D103" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E103" s="220">
+      <c r="E103" s="217">
         <f t="shared" si="39"/>
         <v>150</v>
       </c>
@@ -20059,18 +19958,18 @@
         <f>[2]CEA!$K$21</f>
         <v>2327.8431075624085</v>
       </c>
-      <c r="K103" s="299"/>
-      <c r="L103" s="381"/>
-      <c r="M103" s="381"/>
-      <c r="N103" s="381"/>
-      <c r="O103" s="381"/>
-      <c r="P103" s="319"/>
+      <c r="K103" s="296"/>
+      <c r="L103" s="382"/>
+      <c r="M103" s="382"/>
+      <c r="N103" s="382"/>
+      <c r="O103" s="382"/>
+      <c r="P103" s="316"/>
     </row>
     <row r="104" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D104" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E104" s="220">
+      <c r="E104" s="217">
         <f t="shared" si="39"/>
         <v>150</v>
       </c>
@@ -20078,18 +19977,18 @@
         <f>[2]CEA!$N$21</f>
         <v>2830.8234933035715</v>
       </c>
-      <c r="K104" s="299"/>
+      <c r="K104" s="296"/>
       <c r="L104" s="50"/>
       <c r="M104" s="50"/>
-      <c r="N104" s="229"/>
+      <c r="N104" s="226"/>
       <c r="O104" s="139"/>
-      <c r="P104" s="319"/>
+      <c r="P104" s="316"/>
     </row>
     <row r="105" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D105" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E105" s="220">
+      <c r="E105" s="217">
         <f t="shared" si="39"/>
         <v>150</v>
       </c>
@@ -20097,18 +19996,18 @@
         <f>[2]CEA!$Q$21</f>
         <v>3644.2785201149431</v>
       </c>
-      <c r="K105" s="299"/>
+      <c r="K105" s="296"/>
       <c r="L105" s="50"/>
       <c r="M105" s="50"/>
-      <c r="N105" s="229"/>
+      <c r="N105" s="226"/>
       <c r="O105" s="139"/>
-      <c r="P105" s="319"/>
+      <c r="P105" s="316"/>
     </row>
     <row r="106" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D106" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="E106" s="220">
+      <c r="E106" s="217">
         <f t="shared" si="39"/>
         <v>150</v>
       </c>
@@ -20116,12 +20015,12 @@
         <f>[2]CEA!$T$21</f>
         <v>5197.5775614754102</v>
       </c>
-      <c r="K106" s="299"/>
+      <c r="K106" s="296"/>
       <c r="L106" s="50"/>
       <c r="M106" s="50"/>
-      <c r="N106" s="229"/>
+      <c r="N106" s="226"/>
       <c r="O106" s="139"/>
-      <c r="P106" s="319"/>
+      <c r="P106" s="316"/>
     </row>
     <row r="107" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="81" t="s">
@@ -20135,70 +20034,70 @@
         <f>[2]CEA!$W$21</f>
         <v>8807.006423611112</v>
       </c>
-      <c r="K107" s="299"/>
+      <c r="K107" s="296"/>
       <c r="L107" s="50"/>
       <c r="M107" s="50"/>
-      <c r="N107" s="229"/>
+      <c r="N107" s="226"/>
       <c r="O107" s="139"/>
-      <c r="P107" s="319"/>
+      <c r="P107" s="316"/>
     </row>
     <row r="108" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="390" t="s">
+      <c r="D108" s="391" t="s">
         <v>239</v>
       </c>
-      <c r="E108" s="390"/>
-      <c r="F108" s="390"/>
-      <c r="G108" s="268"/>
-      <c r="H108" s="228"/>
-      <c r="K108" s="299"/>
+      <c r="E108" s="391"/>
+      <c r="F108" s="391"/>
+      <c r="G108" s="265"/>
+      <c r="H108" s="225"/>
+      <c r="K108" s="296"/>
       <c r="L108" s="139"/>
       <c r="M108" s="139"/>
       <c r="N108" s="139"/>
       <c r="O108" s="139"/>
-      <c r="P108" s="319"/>
+      <c r="P108" s="316"/>
     </row>
     <row r="109" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D109" s="391"/>
-      <c r="E109" s="391"/>
-      <c r="F109" s="391"/>
-      <c r="G109" s="268"/>
-      <c r="H109" s="228"/>
-      <c r="K109" s="299"/>
+      <c r="D109" s="392"/>
+      <c r="E109" s="392"/>
+      <c r="F109" s="392"/>
+      <c r="G109" s="265"/>
+      <c r="H109" s="225"/>
+      <c r="K109" s="296"/>
       <c r="L109" s="139"/>
       <c r="M109" s="139"/>
       <c r="N109" s="139"/>
       <c r="O109" s="139"/>
-      <c r="P109" s="319"/>
+      <c r="P109" s="316"/>
     </row>
     <row r="110" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D110" s="391"/>
-      <c r="E110" s="391"/>
-      <c r="F110" s="391"/>
-      <c r="K110" s="299"/>
+      <c r="D110" s="392"/>
+      <c r="E110" s="392"/>
+      <c r="F110" s="392"/>
+      <c r="K110" s="296"/>
       <c r="L110" s="139"/>
       <c r="M110" s="139"/>
       <c r="N110" s="139"/>
       <c r="O110" s="139"/>
-      <c r="P110" s="319"/>
+      <c r="P110" s="316"/>
     </row>
     <row r="111" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D111" s="50"/>
       <c r="E111" s="50"/>
       <c r="F111" s="177"/>
-      <c r="K111" s="299"/>
+      <c r="K111" s="296"/>
       <c r="L111" s="139"/>
       <c r="M111" s="139"/>
       <c r="N111" s="139"/>
       <c r="O111" s="139"/>
-      <c r="P111" s="319"/>
+      <c r="P111" s="316"/>
     </row>
     <row r="112" spans="4:20" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D112" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="G112" s="254"/>
-      <c r="K112" s="286"/>
-      <c r="P112" s="254"/>
+      <c r="G112" s="251"/>
+      <c r="K112" s="283"/>
+      <c r="P112" s="251"/>
     </row>
     <row r="113" spans="4:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D113" s="47" t="s">
@@ -20210,13 +20109,13 @@
       <c r="F113" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H113" s="377" t="s">
+      <c r="H113" s="378" t="s">
         <v>116</v>
       </c>
-      <c r="I113" s="378"/>
-      <c r="J113" s="378"/>
-      <c r="K113" s="378"/>
-      <c r="L113" s="379"/>
+      <c r="I113" s="379"/>
+      <c r="J113" s="379"/>
+      <c r="K113" s="379"/>
+      <c r="L113" s="380"/>
       <c r="N113" s="47" t="s">
         <v>11</v>
       </c>
@@ -20243,7 +20142,7 @@
       <c r="J114" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="K114" s="300" t="s">
+      <c r="K114" s="297" t="s">
         <v>120</v>
       </c>
       <c r="L114" s="111" t="s">
@@ -20276,7 +20175,7 @@
       <c r="J115" s="100">
         <v>0.21</v>
       </c>
-      <c r="K115" s="301">
+      <c r="K115" s="298">
         <v>0</v>
       </c>
       <c r="L115" s="112">
@@ -20689,29 +20588,29 @@
       </c>
     </row>
     <row r="149" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D149" s="386" t="s">
+      <c r="D149" s="387" t="s">
         <v>239</v>
       </c>
-      <c r="E149" s="386"/>
-      <c r="F149" s="386"/>
+      <c r="E149" s="387"/>
+      <c r="F149" s="387"/>
     </row>
     <row r="150" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D150" s="387"/>
-      <c r="E150" s="387"/>
-      <c r="F150" s="387"/>
+      <c r="D150" s="388"/>
+      <c r="E150" s="388"/>
+      <c r="F150" s="388"/>
     </row>
     <row r="151" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D151" s="387"/>
-      <c r="E151" s="387"/>
-      <c r="F151" s="387"/>
+      <c r="D151" s="388"/>
+      <c r="E151" s="388"/>
+      <c r="F151" s="388"/>
     </row>
     <row r="153" spans="4:16" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D153" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="G153" s="254"/>
-      <c r="K153" s="286"/>
-      <c r="P153" s="254"/>
+      <c r="G153" s="251"/>
+      <c r="K153" s="283"/>
+      <c r="P153" s="251"/>
     </row>
     <row r="154" spans="4:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D154" s="47" t="s">
@@ -20723,11 +20622,11 @@
       <c r="F154" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H154" s="392" t="s">
+      <c r="H154" s="393" t="s">
         <v>251</v>
       </c>
-      <c r="I154" s="393"/>
-      <c r="J154" s="394"/>
+      <c r="I154" s="394"/>
+      <c r="J154" s="395"/>
     </row>
     <row r="155" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D155" s="73" t="s">
@@ -20736,14 +20635,14 @@
       <c r="E155" s="49">
         <v>8</v>
       </c>
-      <c r="F155" s="244">
+      <c r="F155" s="241">
         <f>[3]Resumen!$D$4</f>
         <v>21.566399999999998</v>
       </c>
       <c r="H155" s="109" t="s">
         <v>252</v>
       </c>
-      <c r="I155" s="242" t="s">
+      <c r="I155" s="239" t="s">
         <v>253</v>
       </c>
       <c r="J155" s="111" t="s">
@@ -20758,14 +20657,14 @@
         <f t="shared" ref="E156:E161" si="41">+E155</f>
         <v>8</v>
       </c>
-      <c r="F156" s="245">
+      <c r="F156" s="242">
         <f>[3]Resumen!$E$4</f>
         <v>25.004000000000005</v>
       </c>
       <c r="H156" s="99">
         <v>0.3</v>
       </c>
-      <c r="I156" s="243">
+      <c r="I156" s="240">
         <v>0.56000000000000005</v>
       </c>
       <c r="J156" s="102">
@@ -20776,11 +20675,11 @@
       <c r="D157" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E157" s="220">
+      <c r="E157" s="217">
         <f t="shared" si="41"/>
         <v>8</v>
       </c>
-      <c r="F157" s="245">
+      <c r="F157" s="242">
         <f>[3]Resumen!$F$4</f>
         <v>33.041000000000004</v>
       </c>
@@ -20789,11 +20688,11 @@
       <c r="D158" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E158" s="220">
+      <c r="E158" s="217">
         <f t="shared" si="41"/>
         <v>8</v>
       </c>
-      <c r="F158" s="245">
+      <c r="F158" s="242">
         <f>[3]Resumen!$G$4</f>
         <v>47.775500000000001</v>
       </c>
@@ -20802,11 +20701,11 @@
       <c r="D159" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E159" s="220">
+      <c r="E159" s="217">
         <f t="shared" si="41"/>
         <v>8</v>
       </c>
-      <c r="F159" s="245">
+      <c r="F159" s="242">
         <f>[3]Resumen!$H$4</f>
         <v>62.956500000000005</v>
       </c>
@@ -20815,11 +20714,11 @@
       <c r="D160" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="E160" s="220">
+      <c r="E160" s="217">
         <f t="shared" si="41"/>
         <v>8</v>
       </c>
-      <c r="F160" s="245">
+      <c r="F160" s="242">
         <f>[3]Resumen!$I$4</f>
         <v>71.886500000000012</v>
       </c>
@@ -20828,11 +20727,11 @@
       <c r="D161" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="E161" s="220">
+      <c r="E161" s="217">
         <f t="shared" si="41"/>
         <v>8</v>
       </c>
-      <c r="F161" s="246">
+      <c r="F161" s="243">
         <f>[3]Resumen!$J$4</f>
         <v>75.905000000000015</v>
       </c>
@@ -20844,7 +20743,7 @@
       <c r="E162" s="49">
         <v>10</v>
       </c>
-      <c r="F162" s="244">
+      <c r="F162" s="241">
         <f>[3]Resumen!$D$5</f>
         <v>23.856000000000005</v>
       </c>
@@ -20853,11 +20752,11 @@
       <c r="D163" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="E163" s="220">
+      <c r="E163" s="217">
         <f t="shared" ref="E163:E168" si="42">+E162</f>
         <v>10</v>
       </c>
-      <c r="F163" s="245">
+      <c r="F163" s="242">
         <f>[3]Resumen!$E$5</f>
         <v>27.635999999999999</v>
       </c>
@@ -20866,11 +20765,11 @@
       <c r="D164" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E164" s="220">
+      <c r="E164" s="217">
         <f t="shared" si="42"/>
         <v>10</v>
       </c>
-      <c r="F164" s="245">
+      <c r="F164" s="242">
         <f>[3]Resumen!$F$5</f>
         <v>36.518999999999998</v>
       </c>
@@ -20879,11 +20778,11 @@
       <c r="D165" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E165" s="220">
+      <c r="E165" s="217">
         <f t="shared" si="42"/>
         <v>10</v>
       </c>
-      <c r="F165" s="245">
+      <c r="F165" s="242">
         <f>[3]Resumen!$G$5</f>
         <v>52.804499999999997</v>
       </c>
@@ -20892,11 +20791,11 @@
       <c r="D166" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E166" s="220">
+      <c r="E166" s="217">
         <f t="shared" si="42"/>
         <v>10</v>
       </c>
-      <c r="F166" s="245">
+      <c r="F166" s="242">
         <f>[3]Resumen!$H$5</f>
         <v>69.583500000000001</v>
       </c>
@@ -20905,11 +20804,11 @@
       <c r="D167" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="E167" s="220">
+      <c r="E167" s="217">
         <f t="shared" si="42"/>
         <v>10</v>
       </c>
-      <c r="F167" s="245">
+      <c r="F167" s="242">
         <f>[3]Resumen!$I$5</f>
         <v>79.453500000000005</v>
       </c>
@@ -20918,11 +20817,11 @@
       <c r="D168" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="E168" s="220">
+      <c r="E168" s="217">
         <f t="shared" si="42"/>
         <v>10</v>
       </c>
-      <c r="F168" s="246">
+      <c r="F168" s="243">
         <f>[3]Resumen!$J$5</f>
         <v>83.894999999999996</v>
       </c>
@@ -20934,7 +20833,7 @@
       <c r="E169" s="49">
         <v>15</v>
       </c>
-      <c r="F169" s="244">
+      <c r="F169" s="241">
         <f>[3]Resumen!$D$6</f>
         <v>29.58</v>
       </c>
@@ -20943,11 +20842,11 @@
       <c r="D170" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="E170" s="220">
+      <c r="E170" s="217">
         <f t="shared" ref="E170:E175" si="43">+E169</f>
         <v>15</v>
       </c>
-      <c r="F170" s="245">
+      <c r="F170" s="242">
         <f>[3]Resumen!$E$6</f>
         <v>34.216000000000001</v>
       </c>
@@ -20956,11 +20855,11 @@
       <c r="D171" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="E171" s="220">
+      <c r="E171" s="217">
         <f t="shared" si="43"/>
         <v>15</v>
       </c>
-      <c r="F171" s="245">
+      <c r="F171" s="242">
         <f>[3]Resumen!$F$6</f>
         <v>45.214000000000006</v>
       </c>
@@ -20969,11 +20868,11 @@
       <c r="D172" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="E172" s="220">
+      <c r="E172" s="217">
         <f t="shared" si="43"/>
         <v>15</v>
       </c>
-      <c r="F172" s="245">
+      <c r="F172" s="242">
         <f>[3]Resumen!$G$6</f>
         <v>65.376999999999995</v>
       </c>
@@ -20982,11 +20881,11 @@
       <c r="D173" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E173" s="220">
+      <c r="E173" s="217">
         <f t="shared" si="43"/>
         <v>15</v>
       </c>
-      <c r="F173" s="245">
+      <c r="F173" s="242">
         <f>[3]Resumen!$H$6</f>
         <v>86.15100000000001</v>
       </c>
@@ -20995,11 +20894,11 @@
       <c r="D174" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="E174" s="220">
+      <c r="E174" s="217">
         <f t="shared" si="43"/>
         <v>15</v>
       </c>
-      <c r="F174" s="245">
+      <c r="F174" s="242">
         <f>[3]Resumen!$I$6</f>
         <v>98.371000000000009</v>
       </c>
@@ -21008,31 +20907,31 @@
       <c r="D175" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="E175" s="220">
+      <c r="E175" s="217">
         <f t="shared" si="43"/>
         <v>15</v>
       </c>
-      <c r="F175" s="247">
+      <c r="F175" s="244">
         <f>[3]Resumen!$J$6</f>
         <v>103.87</v>
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D176" s="386" t="s">
+      <c r="D176" s="387" t="s">
         <v>239</v>
       </c>
-      <c r="E176" s="386"/>
-      <c r="F176" s="386"/>
+      <c r="E176" s="387"/>
+      <c r="F176" s="387"/>
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D177" s="387"/>
-      <c r="E177" s="387"/>
-      <c r="F177" s="387"/>
+      <c r="D177" s="388"/>
+      <c r="E177" s="388"/>
+      <c r="F177" s="388"/>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D178" s="387"/>
-      <c r="E178" s="387"/>
-      <c r="F178" s="387"/>
+      <c r="D178" s="388"/>
+      <c r="E178" s="388"/>
+      <c r="F178" s="388"/>
     </row>
     <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D179" s="50"/>
@@ -21043,12 +20942,12 @@
       <c r="D180" s="180" t="s">
         <v>133</v>
       </c>
-      <c r="G180" s="254"/>
+      <c r="G180" s="251"/>
       <c r="J180" s="179" t="s">
         <v>101</v>
       </c>
-      <c r="K180" s="286"/>
-      <c r="P180" s="254"/>
+      <c r="K180" s="283"/>
+      <c r="P180" s="251"/>
     </row>
     <row r="181" spans="2:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D181" s="122" t="s">
@@ -21060,7 +20959,7 @@
       <c r="F181" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G181" s="269" t="s">
+      <c r="G181" s="266" t="s">
         <v>99</v>
       </c>
       <c r="H181" s="44" t="s">
@@ -21069,7 +20968,7 @@
       <c r="J181" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="K181" s="302" t="s">
+      <c r="K181" s="299" t="s">
         <v>124</v>
       </c>
       <c r="L181" s="88" t="s">
@@ -21083,7 +20982,7 @@
       </c>
     </row>
     <row r="182" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="369" t="s">
+      <c r="B182" s="370" t="s">
         <v>123</v>
       </c>
       <c r="D182" s="73" t="s">
@@ -21095,7 +20994,7 @@
       <c r="F182" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G182" s="270">
+      <c r="G182" s="267">
         <v>8</v>
       </c>
       <c r="H182" s="184">
@@ -21104,7 +21003,7 @@
       <c r="J182" s="90">
         <v>0.3</v>
       </c>
-      <c r="K182" s="303">
+      <c r="K182" s="300">
         <v>0.38</v>
       </c>
       <c r="L182" s="91">
@@ -21118,7 +21017,7 @@
       </c>
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B183" s="369"/>
+      <c r="B183" s="370"/>
       <c r="D183" s="75" t="s">
         <v>100</v>
       </c>
@@ -21128,7 +21027,7 @@
       <c r="F183" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="G183" s="253">
+      <c r="G183" s="250">
         <v>8</v>
       </c>
       <c r="H183" s="182">
@@ -21136,7 +21035,7 @@
       </c>
     </row>
     <row r="184" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B184" s="369"/>
+      <c r="B184" s="370"/>
       <c r="D184" s="75" t="s">
         <v>100</v>
       </c>
@@ -21146,7 +21045,7 @@
       <c r="F184" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="G184" s="253">
+      <c r="G184" s="250">
         <v>8</v>
       </c>
       <c r="H184" s="182">
@@ -21154,7 +21053,7 @@
       </c>
     </row>
     <row r="185" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B185" s="369"/>
+      <c r="B185" s="370"/>
       <c r="D185" s="75" t="s">
         <v>100</v>
       </c>
@@ -21164,20 +21063,20 @@
       <c r="F185" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="G185" s="253">
+      <c r="G185" s="250">
         <v>8</v>
       </c>
       <c r="H185" s="182">
         <v>185.37931034482693</v>
       </c>
-      <c r="J185" s="375"/>
-      <c r="K185" s="376"/>
+      <c r="J185" s="376"/>
+      <c r="K185" s="377"/>
       <c r="L185" s="117" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="186" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="369"/>
+      <c r="B186" s="370"/>
       <c r="D186" s="75" t="s">
         <v>100</v>
       </c>
@@ -21187,23 +21086,23 @@
       <c r="F186" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="G186" s="253">
+      <c r="G186" s="250">
         <v>8</v>
       </c>
       <c r="H186" s="182">
         <v>209.4545454545447</v>
       </c>
-      <c r="J186" s="388" t="s">
+      <c r="J186" s="389" t="s">
         <v>112</v>
       </c>
-      <c r="K186" s="389"/>
+      <c r="K186" s="390"/>
       <c r="L186" s="116">
         <f>H182*$J$182+H189*$K$182+H196*$L$182+H203*$M$182+H210*$N$182</f>
         <v>230.39999999999918</v>
       </c>
     </row>
     <row r="187" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="369"/>
+      <c r="B187" s="370"/>
       <c r="D187" s="75" t="s">
         <v>100</v>
       </c>
@@ -21213,23 +21112,23 @@
       <c r="F187" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="G187" s="253">
+      <c r="G187" s="250">
         <v>8</v>
       </c>
       <c r="H187" s="182">
         <v>240.71641791044686</v>
       </c>
-      <c r="J187" s="388" t="s">
+      <c r="J187" s="389" t="s">
         <v>113</v>
       </c>
-      <c r="K187" s="389"/>
+      <c r="K187" s="390"/>
       <c r="L187" s="116">
         <f t="shared" ref="L187:L192" si="44">H183*$J$182+H190*$K$182+H197*$L$182+H204*$M$182+H211*$N$182</f>
         <v>249.77943925233555</v>
       </c>
     </row>
     <row r="188" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="369"/>
+      <c r="B188" s="370"/>
       <c r="D188" s="77" t="s">
         <v>100</v>
       </c>
@@ -21239,23 +21138,23 @@
       <c r="F188" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G188" s="271">
+      <c r="G188" s="268">
         <v>8</v>
       </c>
       <c r="H188" s="183">
         <v>260.1290322580636</v>
       </c>
-      <c r="J188" s="388" t="s">
+      <c r="J188" s="389" t="s">
         <v>114</v>
       </c>
-      <c r="K188" s="389"/>
+      <c r="K188" s="390"/>
       <c r="L188" s="116">
         <f t="shared" si="44"/>
         <v>275.52989690721552</v>
       </c>
     </row>
     <row r="189" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="369" t="s">
+      <c r="B189" s="370" t="s">
         <v>124</v>
       </c>
       <c r="D189" s="73" t="s">
@@ -21267,23 +21166,23 @@
       <c r="F189" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G189" s="270">
+      <c r="G189" s="267">
         <v>8</v>
       </c>
       <c r="H189" s="184">
         <v>198.6206896551717</v>
       </c>
-      <c r="J189" s="388" t="s">
+      <c r="J189" s="389" t="s">
         <v>129</v>
       </c>
-      <c r="K189" s="389"/>
+      <c r="K189" s="390"/>
       <c r="L189" s="116">
         <f t="shared" si="44"/>
         <v>307.19999999999891</v>
       </c>
     </row>
     <row r="190" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="369"/>
+      <c r="B190" s="370"/>
       <c r="D190" s="75" t="s">
         <v>100</v>
       </c>
@@ -21293,23 +21192,23 @@
       <c r="F190" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="G190" s="253">
+      <c r="G190" s="250">
         <v>8</v>
       </c>
       <c r="H190" s="182">
         <v>215.32710280373755</v>
       </c>
-      <c r="J190" s="388" t="s">
+      <c r="J190" s="389" t="s">
         <v>130</v>
       </c>
-      <c r="K190" s="389"/>
+      <c r="K190" s="390"/>
       <c r="L190" s="116">
         <f t="shared" si="44"/>
         <v>347.0961038961027</v>
       </c>
     </row>
     <row r="191" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="369"/>
+      <c r="B191" s="370"/>
       <c r="D191" s="75" t="s">
         <v>100</v>
       </c>
@@ -21319,23 +21218,23 @@
       <c r="F191" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="G191" s="253">
+      <c r="G191" s="250">
         <v>8</v>
       </c>
       <c r="H191" s="182">
         <v>237.52577319587542</v>
       </c>
-      <c r="J191" s="388" t="s">
+      <c r="J191" s="389" t="s">
         <v>131</v>
       </c>
-      <c r="K191" s="389"/>
+      <c r="K191" s="390"/>
       <c r="L191" s="116">
         <f t="shared" si="44"/>
         <v>398.90149253731192</v>
       </c>
     </row>
     <row r="192" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="369"/>
+      <c r="B192" s="370"/>
       <c r="D192" s="75" t="s">
         <v>100</v>
       </c>
@@ -21345,23 +21244,23 @@
       <c r="F192" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="G192" s="253">
+      <c r="G192" s="250">
         <v>8</v>
       </c>
       <c r="H192" s="182">
         <v>264.8275862068956</v>
       </c>
-      <c r="J192" s="388" t="s">
+      <c r="J192" s="389" t="s">
         <v>132</v>
       </c>
-      <c r="K192" s="389"/>
+      <c r="K192" s="390"/>
       <c r="L192" s="116">
         <f t="shared" si="44"/>
         <v>431.07096774193394</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="369"/>
+      <c r="B193" s="370"/>
       <c r="D193" s="75" t="s">
         <v>100</v>
       </c>
@@ -21371,7 +21270,7 @@
       <c r="F193" s="125" t="s">
         <v>86</v>
       </c>
-      <c r="G193" s="253">
+      <c r="G193" s="250">
         <v>8</v>
       </c>
       <c r="H193" s="182">
@@ -21379,7 +21278,7 @@
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="369"/>
+      <c r="B194" s="370"/>
       <c r="D194" s="75" t="s">
         <v>100</v>
       </c>
@@ -21389,7 +21288,7 @@
       <c r="F194" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="G194" s="253">
+      <c r="G194" s="250">
         <v>8</v>
       </c>
       <c r="H194" s="182">
@@ -21397,7 +21296,7 @@
       </c>
     </row>
     <row r="195" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="369"/>
+      <c r="B195" s="370"/>
       <c r="D195" s="81" t="s">
         <v>100</v>
       </c>
@@ -21407,7 +21306,7 @@
       <c r="F195" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G195" s="272">
+      <c r="G195" s="269">
         <v>8</v>
       </c>
       <c r="H195" s="185">
@@ -21415,7 +21314,7 @@
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="369" t="s">
+      <c r="B196" s="370" t="s">
         <v>125</v>
       </c>
       <c r="D196" s="83" t="s">
@@ -21427,7 +21326,7 @@
       <c r="F196" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="G196" s="273">
+      <c r="G196" s="270">
         <v>8</v>
       </c>
       <c r="H196" s="181">
@@ -21435,7 +21334,7 @@
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="369"/>
+      <c r="B197" s="370"/>
       <c r="D197" s="75" t="s">
         <v>100</v>
       </c>
@@ -21445,7 +21344,7 @@
       <c r="F197" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="G197" s="253">
+      <c r="G197" s="250">
         <v>8</v>
       </c>
       <c r="H197" s="182">
@@ -21453,7 +21352,7 @@
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="369"/>
+      <c r="B198" s="370"/>
       <c r="D198" s="75" t="s">
         <v>100</v>
       </c>
@@ -21463,7 +21362,7 @@
       <c r="F198" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="G198" s="253">
+      <c r="G198" s="250">
         <v>8</v>
       </c>
       <c r="H198" s="182">
@@ -21471,7 +21370,7 @@
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B199" s="369"/>
+      <c r="B199" s="370"/>
       <c r="D199" s="75" t="s">
         <v>100</v>
       </c>
@@ -21481,7 +21380,7 @@
       <c r="F199" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="G199" s="253">
+      <c r="G199" s="250">
         <v>8</v>
       </c>
       <c r="H199" s="182">
@@ -21489,7 +21388,7 @@
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B200" s="369"/>
+      <c r="B200" s="370"/>
       <c r="D200" s="75" t="s">
         <v>100</v>
       </c>
@@ -21499,7 +21398,7 @@
       <c r="F200" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="G200" s="253">
+      <c r="G200" s="250">
         <v>8</v>
       </c>
       <c r="H200" s="182">
@@ -21507,7 +21406,7 @@
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B201" s="369"/>
+      <c r="B201" s="370"/>
       <c r="D201" s="75" t="s">
         <v>100</v>
       </c>
@@ -21517,7 +21416,7 @@
       <c r="F201" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="G201" s="253">
+      <c r="G201" s="250">
         <v>8</v>
       </c>
       <c r="H201" s="182">
@@ -21525,7 +21424,7 @@
       </c>
     </row>
     <row r="202" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="369"/>
+      <c r="B202" s="370"/>
       <c r="D202" s="81" t="s">
         <v>100</v>
       </c>
@@ -21535,7 +21434,7 @@
       <c r="F202" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G202" s="272">
+      <c r="G202" s="269">
         <v>8</v>
       </c>
       <c r="H202" s="185">
@@ -21543,7 +21442,7 @@
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="369" t="s">
+      <c r="B203" s="370" t="s">
         <v>126</v>
       </c>
       <c r="D203" s="83" t="s">
@@ -21555,7 +21454,7 @@
       <c r="F203" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="G203" s="273">
+      <c r="G203" s="270">
         <v>8</v>
       </c>
       <c r="H203" s="181">
@@ -21563,7 +21462,7 @@
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B204" s="369"/>
+      <c r="B204" s="370"/>
       <c r="D204" s="75" t="s">
         <v>100</v>
       </c>
@@ -21573,7 +21472,7 @@
       <c r="F204" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="G204" s="253">
+      <c r="G204" s="250">
         <v>8</v>
       </c>
       <c r="H204" s="182">
@@ -21581,7 +21480,7 @@
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B205" s="369"/>
+      <c r="B205" s="370"/>
       <c r="D205" s="75" t="s">
         <v>100</v>
       </c>
@@ -21591,7 +21490,7 @@
       <c r="F205" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="G205" s="253">
+      <c r="G205" s="250">
         <v>8</v>
       </c>
       <c r="H205" s="182">
@@ -21599,7 +21498,7 @@
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="369"/>
+      <c r="B206" s="370"/>
       <c r="D206" s="75" t="s">
         <v>100</v>
       </c>
@@ -21609,7 +21508,7 @@
       <c r="F206" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="G206" s="253">
+      <c r="G206" s="250">
         <v>8</v>
       </c>
       <c r="H206" s="182">
@@ -21617,7 +21516,7 @@
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B207" s="369"/>
+      <c r="B207" s="370"/>
       <c r="D207" s="75" t="s">
         <v>100</v>
       </c>
@@ -21627,7 +21526,7 @@
       <c r="F207" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="G207" s="253">
+      <c r="G207" s="250">
         <v>8</v>
       </c>
       <c r="H207" s="182">
@@ -21635,7 +21534,7 @@
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B208" s="369"/>
+      <c r="B208" s="370"/>
       <c r="D208" s="75" t="s">
         <v>100</v>
       </c>
@@ -21645,7 +21544,7 @@
       <c r="F208" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="G208" s="253">
+      <c r="G208" s="250">
         <v>8</v>
       </c>
       <c r="H208" s="182">
@@ -21653,7 +21552,7 @@
       </c>
     </row>
     <row r="209" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="369"/>
+      <c r="B209" s="370"/>
       <c r="D209" s="77" t="s">
         <v>100</v>
       </c>
@@ -21663,7 +21562,7 @@
       <c r="F209" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G209" s="271">
+      <c r="G209" s="268">
         <v>8</v>
       </c>
       <c r="H209" s="183">
@@ -21671,7 +21570,7 @@
       </c>
     </row>
     <row r="210" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B210" s="369" t="s">
+      <c r="B210" s="370" t="s">
         <v>127</v>
       </c>
       <c r="D210" s="73" t="s">
@@ -21683,7 +21582,7 @@
       <c r="F210" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G210" s="270">
+      <c r="G210" s="267">
         <v>8</v>
       </c>
       <c r="H210" s="184">
@@ -21691,7 +21590,7 @@
       </c>
     </row>
     <row r="211" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B211" s="369"/>
+      <c r="B211" s="370"/>
       <c r="D211" s="75" t="s">
         <v>100</v>
       </c>
@@ -21701,7 +21600,7 @@
       <c r="F211" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="G211" s="253">
+      <c r="G211" s="250">
         <v>8</v>
       </c>
       <c r="H211" s="182">
@@ -21709,7 +21608,7 @@
       </c>
     </row>
     <row r="212" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B212" s="369"/>
+      <c r="B212" s="370"/>
       <c r="D212" s="75" t="s">
         <v>100</v>
       </c>
@@ -21719,7 +21618,7 @@
       <c r="F212" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="G212" s="253">
+      <c r="G212" s="250">
         <v>8</v>
       </c>
       <c r="H212" s="182">
@@ -21727,7 +21626,7 @@
       </c>
     </row>
     <row r="213" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B213" s="369"/>
+      <c r="B213" s="370"/>
       <c r="D213" s="75" t="s">
         <v>100</v>
       </c>
@@ -21737,7 +21636,7 @@
       <c r="F213" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="G213" s="253">
+      <c r="G213" s="250">
         <v>8</v>
       </c>
       <c r="H213" s="182">
@@ -21745,7 +21644,7 @@
       </c>
     </row>
     <row r="214" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B214" s="369"/>
+      <c r="B214" s="370"/>
       <c r="D214" s="75" t="s">
         <v>100</v>
       </c>
@@ -21755,7 +21654,7 @@
       <c r="F214" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="G214" s="253">
+      <c r="G214" s="250">
         <v>8</v>
       </c>
       <c r="H214" s="182">
@@ -21763,7 +21662,7 @@
       </c>
     </row>
     <row r="215" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B215" s="369"/>
+      <c r="B215" s="370"/>
       <c r="D215" s="75" t="s">
         <v>100</v>
       </c>
@@ -21773,7 +21672,7 @@
       <c r="F215" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="G215" s="253">
+      <c r="G215" s="250">
         <v>8</v>
       </c>
       <c r="H215" s="182">
@@ -21781,7 +21680,7 @@
       </c>
     </row>
     <row r="216" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="369"/>
+      <c r="B216" s="370"/>
       <c r="D216" s="81" t="s">
         <v>100</v>
       </c>
@@ -21791,7 +21690,7 @@
       <c r="F216" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="G216" s="272">
+      <c r="G216" s="269">
         <v>8</v>
       </c>
       <c r="H216" s="185">
@@ -21799,28 +21698,28 @@
       </c>
     </row>
     <row r="217" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D217" s="386" t="s">
+      <c r="D217" s="387" t="s">
         <v>239</v>
       </c>
-      <c r="E217" s="386"/>
-      <c r="F217" s="386"/>
-      <c r="G217" s="386"/>
-      <c r="H217" s="386"/>
+      <c r="E217" s="387"/>
+      <c r="F217" s="387"/>
+      <c r="G217" s="387"/>
+      <c r="H217" s="387"/>
     </row>
     <row r="218" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D218" s="387"/>
-      <c r="E218" s="387"/>
-      <c r="F218" s="387"/>
-      <c r="G218" s="387"/>
-      <c r="H218" s="387"/>
+      <c r="D218" s="388"/>
+      <c r="E218" s="388"/>
+      <c r="F218" s="388"/>
+      <c r="G218" s="388"/>
+      <c r="H218" s="388"/>
     </row>
     <row r="220" spans="2:20" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D220" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="G220" s="254"/>
-      <c r="K220" s="286"/>
-      <c r="P220" s="254"/>
+      <c r="G220" s="251"/>
+      <c r="K220" s="283"/>
+      <c r="P220" s="251"/>
     </row>
     <row r="221" spans="2:20" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D221" s="47" t="s">
@@ -21832,7 +21731,7 @@
       <c r="F221" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="G221" s="269" t="s">
+      <c r="G221" s="266" t="s">
         <v>104</v>
       </c>
       <c r="H221" s="44" t="s">
@@ -21841,15 +21740,15 @@
       <c r="I221" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="K221" s="377" t="s">
+      <c r="K221" s="378" t="s">
         <v>105</v>
       </c>
-      <c r="L221" s="378"/>
-      <c r="M221" s="378"/>
-      <c r="N221" s="378"/>
-      <c r="O221" s="379"/>
-      <c r="R221" s="375"/>
-      <c r="S221" s="376"/>
+      <c r="L221" s="379"/>
+      <c r="M221" s="379"/>
+      <c r="N221" s="379"/>
+      <c r="O221" s="380"/>
+      <c r="R221" s="376"/>
+      <c r="S221" s="377"/>
       <c r="T221" s="103" t="s">
         <v>111</v>
       </c>
@@ -21864,7 +21763,7 @@
       <c r="F222" s="49">
         <v>0.746</v>
       </c>
-      <c r="G222" s="274">
+      <c r="G222" s="271">
         <v>0.85499999999999998</v>
       </c>
       <c r="H222" s="93">
@@ -21873,7 +21772,7 @@
       <c r="I222" s="200">
         <v>2547.7426900584796</v>
       </c>
-      <c r="K222" s="304" t="s">
+      <c r="K222" s="301" t="s">
         <v>106</v>
       </c>
       <c r="L222" s="51" t="s">
@@ -21888,10 +21787,10 @@
       <c r="O222" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="R222" s="373" t="s">
+      <c r="R222" s="374" t="s">
         <v>112</v>
       </c>
-      <c r="S222" s="374"/>
+      <c r="S222" s="375"/>
       <c r="T222" s="104">
         <f>I222*$K$223+I225*$L$223+I228*$M$223+I231*$N$223+I234*$O$223</f>
         <v>7997.2788862459374</v>
@@ -21907,7 +21806,7 @@
       <c r="F223" s="175">
         <v>0.746</v>
       </c>
-      <c r="G223" s="275">
+      <c r="G223" s="272">
         <v>0.82499999999999996</v>
       </c>
       <c r="H223" s="94">
@@ -21916,7 +21815,7 @@
       <c r="I223" s="201">
         <v>2640.3878787878789</v>
       </c>
-      <c r="K223" s="305">
+      <c r="K223" s="302">
         <v>0.33</v>
       </c>
       <c r="L223" s="100">
@@ -21931,10 +21830,10 @@
       <c r="O223" s="102">
         <v>0.02</v>
       </c>
-      <c r="R223" s="373" t="s">
+      <c r="R223" s="374" t="s">
         <v>113</v>
       </c>
-      <c r="S223" s="374"/>
+      <c r="S223" s="375"/>
       <c r="T223" s="104">
         <f>I223*$K$223+I226*$L$223+I229*$M$223+I232*$N$223+I235*$O$223</f>
         <v>8194.1635171830039</v>
@@ -21950,7 +21849,7 @@
       <c r="F224" s="61">
         <v>0.746</v>
       </c>
-      <c r="G224" s="276">
+      <c r="G224" s="273">
         <v>0.78</v>
       </c>
       <c r="H224" s="95">
@@ -21959,10 +21858,10 @@
       <c r="I224" s="202">
         <v>2792.7179487179487</v>
       </c>
-      <c r="R224" s="373" t="s">
+      <c r="R224" s="374" t="s">
         <v>114</v>
       </c>
-      <c r="S224" s="374"/>
+      <c r="S224" s="375"/>
       <c r="T224" s="104">
         <f>I224*$K$223+I227*$L$223+I230*$M$223+I233*$N$223+I236*$O$223</f>
         <v>8444.2043794558067</v>
@@ -21978,7 +21877,7 @@
       <c r="F225" s="49">
         <v>1.492</v>
       </c>
-      <c r="G225" s="274">
+      <c r="G225" s="271">
         <v>0.86499999999999999</v>
       </c>
       <c r="H225" s="93">
@@ -21998,7 +21897,7 @@
       <c r="F226" s="175">
         <v>1.492</v>
       </c>
-      <c r="G226" s="275">
+      <c r="G226" s="272">
         <v>0.84</v>
       </c>
       <c r="H226" s="94">
@@ -22018,7 +21917,7 @@
       <c r="F227" s="71">
         <v>1.492</v>
       </c>
-      <c r="G227" s="277">
+      <c r="G227" s="274">
         <v>0.81499999999999995</v>
       </c>
       <c r="H227" s="96">
@@ -22038,7 +21937,7 @@
       <c r="F228" s="85">
         <v>3.73</v>
       </c>
-      <c r="G228" s="278">
+      <c r="G228" s="275">
         <v>0.89500000000000002</v>
       </c>
       <c r="H228" s="97">
@@ -22058,7 +21957,7 @@
       <c r="F229" s="175">
         <v>3.73</v>
       </c>
-      <c r="G229" s="275">
+      <c r="G229" s="272">
         <v>0.875</v>
       </c>
       <c r="H229" s="94">
@@ -22078,7 +21977,7 @@
       <c r="F230" s="61">
         <v>3.73</v>
       </c>
-      <c r="G230" s="276">
+      <c r="G230" s="273">
         <v>0.85</v>
       </c>
       <c r="H230" s="95">
@@ -22098,7 +21997,7 @@
       <c r="F231" s="49">
         <v>7.46</v>
       </c>
-      <c r="G231" s="274">
+      <c r="G231" s="271">
         <v>0.91700000000000004</v>
       </c>
       <c r="H231" s="93">
@@ -22118,7 +22017,7 @@
       <c r="F232" s="175">
         <v>7.46</v>
       </c>
-      <c r="G232" s="275">
+      <c r="G232" s="272">
         <v>0.89500000000000002</v>
       </c>
       <c r="H232" s="94">
@@ -22138,7 +22037,7 @@
       <c r="F233" s="71">
         <v>7.46</v>
       </c>
-      <c r="G233" s="277">
+      <c r="G233" s="274">
         <v>0.875</v>
       </c>
       <c r="H233" s="96">
@@ -22158,7 +22057,7 @@
       <c r="F234" s="85">
         <v>18.649999999999999</v>
       </c>
-      <c r="G234" s="278">
+      <c r="G234" s="275">
         <v>0.93600000000000005</v>
       </c>
       <c r="H234" s="97">
@@ -22178,7 +22077,7 @@
       <c r="F235" s="175">
         <v>18.649999999999999</v>
       </c>
-      <c r="G235" s="275">
+      <c r="G235" s="272">
         <v>0.92400000000000004</v>
       </c>
       <c r="H235" s="94">
@@ -22198,7 +22097,7 @@
       <c r="F236" s="71">
         <v>18.649999999999999</v>
       </c>
-      <c r="G236" s="277">
+      <c r="G236" s="274">
         <v>0.90500000000000003</v>
       </c>
       <c r="H236" s="96">
@@ -22219,7 +22118,7 @@
         <f>E237*0.746</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="G237" s="279">
+      <c r="G237" s="276">
         <f>G234</f>
         <v>0.93600000000000005</v>
       </c>
@@ -22242,7 +22141,7 @@
         <f>+F237</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="G238" s="280">
+      <c r="G238" s="277">
         <f>G235</f>
         <v>0.92400000000000004</v>
       </c>
@@ -22265,7 +22164,7 @@
         <f>+F238</f>
         <v>37.299999999999997</v>
       </c>
-      <c r="G239" s="281">
+      <c r="G239" s="278">
         <f>G236</f>
         <v>0.90500000000000003</v>
       </c>
@@ -22278,22 +22177,22 @@
       </c>
     </row>
     <row r="240" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D240" s="386" t="s">
+      <c r="D240" s="387" t="s">
         <v>239</v>
       </c>
-      <c r="E240" s="386"/>
-      <c r="F240" s="386"/>
-      <c r="G240" s="386"/>
-      <c r="H240" s="386"/>
-      <c r="I240" s="386"/>
+      <c r="E240" s="387"/>
+      <c r="F240" s="387"/>
+      <c r="G240" s="387"/>
+      <c r="H240" s="387"/>
+      <c r="I240" s="387"/>
     </row>
     <row r="241" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D241" s="387"/>
-      <c r="E241" s="387"/>
-      <c r="F241" s="387"/>
-      <c r="G241" s="387"/>
-      <c r="H241" s="387"/>
-      <c r="I241" s="387"/>
+      <c r="D241" s="388"/>
+      <c r="E241" s="388"/>
+      <c r="F241" s="388"/>
+      <c r="G241" s="388"/>
+      <c r="H241" s="388"/>
+      <c r="I241" s="388"/>
     </row>
     <row r="297" spans="19:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="298" spans="19:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22480,23 +22379,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="1"/>
     <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
@@ -22557,10 +22457,10 @@
         <f>[4]Hoja1!$N$5</f>
         <v>0.59799999999999998</v>
       </c>
-      <c r="R4" s="282" t="s">
+      <c r="R4" s="279" t="s">
         <v>258</v>
       </c>
-      <c r="S4" s="282" t="s">
+      <c r="S4" s="279" t="s">
         <v>259</v>
       </c>
     </row>
@@ -22582,10 +22482,10 @@
         <f>[4]Hoja1!$N$11</f>
         <v>0.61926999999999999</v>
       </c>
-      <c r="R5" s="282" t="s">
+      <c r="R5" s="279" t="s">
         <v>258</v>
       </c>
-      <c r="S5" s="282" t="s">
+      <c r="S5" s="279" t="s">
         <v>259</v>
       </c>
     </row>
@@ -22622,7 +22522,7 @@
         <v>2013</v>
       </c>
       <c r="P7" s="211"/>
-      <c r="Q7" s="248">
+      <c r="Q7" s="245">
         <f>Q6</f>
         <v>0.62709999999999999</v>
       </c>
@@ -22642,7 +22542,7 @@
         <v>2014</v>
       </c>
       <c r="P8" s="211"/>
-      <c r="Q8" s="248">
+      <c r="Q8" s="245">
         <f>Q7</f>
         <v>0.62709999999999999</v>
       </c>
@@ -22661,7 +22561,7 @@
         <v>2015</v>
       </c>
       <c r="P9" s="211"/>
-      <c r="Q9" s="248">
+      <c r="Q9" s="245">
         <f>Q8</f>
         <v>0.62709999999999999</v>
       </c>
@@ -22873,11 +22773,11 @@
       <c r="Q24" s="211"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="395" t="s">
+      <c r="O25" s="396" t="s">
         <v>240</v>
       </c>
-      <c r="P25" s="395"/>
-      <c r="Q25" s="395"/>
+      <c r="P25" s="396"/>
+      <c r="Q25" s="396"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="42" t="s">
@@ -22886,9 +22786,9 @@
       <c r="F26" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="O26" s="396"/>
-      <c r="P26" s="396"/>
-      <c r="Q26" s="396"/>
+      <c r="O26" s="397"/>
+      <c r="P26" s="397"/>
+      <c r="Q26" s="397"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
@@ -22915,15 +22815,15 @@
       <c r="J27" s="166" t="s">
         <v>223</v>
       </c>
-      <c r="O27" s="396"/>
-      <c r="P27" s="396"/>
-      <c r="Q27" s="396"/>
+      <c r="O27" s="397"/>
+      <c r="P27" s="397"/>
+      <c r="Q27" s="397"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="215">
+      <c r="C28" s="343">
         <f>'[5]Fact. con.'!E180</f>
         <v>3.6036968416892283E-5</v>
       </c>
@@ -22934,15 +22834,15 @@
       <c r="F28" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="G28" s="217">
+      <c r="G28" s="346">
         <f>'[5]FE CE'!$F$39</f>
         <v>56126.26334612057</v>
       </c>
-      <c r="H28" s="218">
+      <c r="H28" s="215">
         <f>'[5]FE CE'!I24</f>
         <v>1</v>
       </c>
-      <c r="I28" s="218">
+      <c r="I28" s="215">
         <f>'[5]FE CE'!L24</f>
         <v>0.1</v>
       </c>
@@ -22952,7 +22852,7 @@
       <c r="B29" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="C29" s="215">
+      <c r="C29" s="343">
         <f>'[5]Fact. con.'!E179</f>
         <v>2.6392697222457118E-2</v>
       </c>
@@ -22963,15 +22863,15 @@
       <c r="F29" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="G29" s="217">
+      <c r="G29" s="345">
         <f>'[5]FE CE'!F16</f>
         <v>63100</v>
       </c>
-      <c r="H29" s="218">
+      <c r="H29" s="215">
         <f>'[5]FE CE'!I16</f>
         <v>1</v>
       </c>
-      <c r="I29" s="218">
+      <c r="I29" s="215">
         <f>'[5]FE CE'!L16</f>
         <v>0.1</v>
       </c>
@@ -22981,7 +22881,7 @@
       <c r="B30" s="173" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="216">
+      <c r="C30" s="344">
         <f>C28/('[5]Fact. con.'!$J$106*1000000)</f>
         <v>4.5755734840339299E-5</v>
       </c>
@@ -22996,7 +22896,7 @@
       <c r="B31" s="173" t="s">
         <v>232</v>
       </c>
-      <c r="C31" s="216">
+      <c r="C31" s="344">
         <f>C29/('[5]Fact. con.'!$J$98*1000000)</f>
         <v>4.7305190196203054E-5</v>
       </c>
@@ -23038,13 +22938,13 @@
       <c r="B36" s="169" t="s">
         <v>228</v>
       </c>
-      <c r="C36" s="219">
+      <c r="C36" s="216">
         <v>1</v>
       </c>
-      <c r="D36" s="219">
+      <c r="D36" s="216">
         <v>1</v>
       </c>
-      <c r="E36" s="219">
+      <c r="E36" s="216">
         <v>1</v>
       </c>
     </row>
@@ -23052,13 +22952,13 @@
       <c r="B37" s="169" t="s">
         <v>229</v>
       </c>
-      <c r="C37" s="219">
+      <c r="C37" s="216">
         <v>21</v>
       </c>
-      <c r="D37" s="219">
+      <c r="D37" s="216">
         <v>25</v>
       </c>
-      <c r="E37" s="219">
+      <c r="E37" s="216">
         <v>30</v>
       </c>
     </row>
@@ -23066,13 +22966,13 @@
       <c r="B38" s="169" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="219">
+      <c r="C38" s="216">
         <v>310</v>
       </c>
-      <c r="D38" s="219">
+      <c r="D38" s="216">
         <v>298</v>
       </c>
-      <c r="E38" s="219">
+      <c r="E38" s="216">
         <v>265</v>
       </c>
     </row>
@@ -23094,18 +22994,240 @@
     <mergeCell ref="O25:Q27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
-    <hyperlink ref="B40" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B40" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
   <legacyDrawing r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="36.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="317" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="317"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="319" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="317"/>
+      <c r="D2" s="317"/>
+      <c r="E2" s="317"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="317"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="317"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="317"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="320" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="321"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="323"/>
+      <c r="G4" s="324"/>
+      <c r="H4" s="324"/>
+      <c r="I4" s="398" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="51" x14ac:dyDescent="0.25">
+      <c r="B5" s="325" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="325" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="326" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="325" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="327" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="328"/>
+      <c r="H5" s="328" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="398"/>
+    </row>
+    <row r="6" spans="2:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="B6" s="329" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="330"/>
+      <c r="H6" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="I6" s="331" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="332">
+        <v>2013</v>
+      </c>
+      <c r="C7" s="332">
+        <v>30</v>
+      </c>
+      <c r="D7" s="332" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="332" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="333">
+        <v>97000</v>
+      </c>
+      <c r="G7" s="80">
+        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
+        <v>11</v>
+      </c>
+      <c r="H7" s="334" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" s="335">
+        <f>(((Variables!N90*Factores!$C$30*(Factores!G28+Factores!H28*Factores!C37+Factores!I28*Factores!C38))-(Variables!N87*Factores!$C$30*(Factores!G28+Factores!H28*Factores!C37+Factores!I28*Factores!C38)))*F7/1000)*G7/12</f>
+        <v>516.70545238055831</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="332">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="332">
+        <v>150</v>
+      </c>
+      <c r="D8" s="332" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="332" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="333">
+        <v>2700</v>
+      </c>
+      <c r="G8" s="80">
+        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="334" t="s">
+        <v>271</v>
+      </c>
+      <c r="I8" s="335">
+        <f>(((Variables!O98*Factores!$C$31*(Factores!G29+Factores!H29*Factores!C37+Factores!I29*Factores!C38))-(Variables!N95*Factores!$C$30*(Factores!G28+Factores!H28*Factores!C37+Factores!I28*Factores!C38)))*F8/1000)*G8/12</f>
+        <v>456.80277420591398</v>
+      </c>
+      <c r="K8" s="347">
+        <f>(Variables!O98*Factores!$C$31*(Factores!G29+Factores!H29*Factores!C37+Factores!I29*Factores!C38)/1000)*F8</f>
+        <v>1331.4804253807795</v>
+      </c>
+      <c r="L8">
+        <f>(Variables!N95*Factores!$C$30*(Factores!G28+Factores!H28*Factores!C37+Factores!I28*Factores!C38)/1000)*F8</f>
+        <v>783.31709633368268</v>
+      </c>
+      <c r="M8">
+        <f>K8-L8</f>
+        <v>548.16332904709679</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="336"/>
+      <c r="D9" s="337"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="339"/>
+      <c r="G9" s="339"/>
+      <c r="H9" s="339"/>
+      <c r="I9" s="340">
+        <f>SUM(I7:I8)</f>
+        <v>973.50822658647235</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>Lista_meses</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Variables!$K$93:$K$94</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>Variables!$F$12:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>D7:E8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>